--- a/Excel/Reg.xlsx
+++ b/Excel/Reg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\_TEMP\Для Антона\Нужное\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A27560D-81F2-4981-ADEA-120B59F6E85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011BF6BE-A01A-4563-8CD2-4B6B2A2AA032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17028C15-A9BE-46B8-AD41-4B1A89B3A6E3}"/>
   </bookViews>
@@ -113,32 +113,32 @@
     <t>Регистр:</t>
   </si>
   <si>
-    <t xml:space="preserve">/ </t>
-  </si>
-  <si>
     <t>Заказ № 90406326 / 90406326;</t>
   </si>
   <si>
-    <t xml:space="preserve"> №</t>
-  </si>
-  <si>
     <t>С:</t>
   </si>
   <si>
-    <t>EXCEL2021 =ЕСЛИ(И($B2&lt;&gt;"";$C2&lt;&gt;"");
+    <t>EXCEL2021 =ЕСЛИ(ИЛИ($B2&lt;&gt;"";$C2&lt;&gt;"");
 LET(registr;НЕ($I$1);
 include;НЕ(НЕ($G$1));
 in;ЕСЛИ(registr;СТРОЧН($B2);$B2);
 out;ЕСЛИ(registr;СТРОЧН($C2);$C2);
 Target;ЕСЛИ(registr;СТРОЧН($A2);$A2);
-Start;ЕСЛИ(in="-";1;НАЙТИ(in;Target)+ЕСЛИ(include;0;ДЛСТР(in)));
-End;ЕСЛИ(out="-";ДЛСТР(Target)+1+Start;НАЙТИ(out;Target;Start+1));
+Start;ЕСЛИ(in="";1;НАЙТИ(in;Target)+ЕСЛИ(include;0;ДЛСТР(in)));
+End;ЕСЛИ(out="";ДЛСТР(Target)+1+Start;НАЙТИ(out;Target;Start+1));
 Result;СЖПРОБЕЛЫ(ПСТР($A2;Start;End-Start+ЕСЛИ(include;ДЛСТР(out);0)));
 ЕСЛИОШИБКА(Result;"Не найдено")
 );"")</t>
   </si>
   <si>
-    <t>ECCEL&lt;2021 =ЕСЛИ(И($B2&lt;&gt;"";$C2&lt;&gt;"");ЕСЛИОШИБКА(СЖПРОБЕЛЫ(ПСТР($A2;ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="-";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))));ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($C2);$C2)="-";ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+1+ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="-";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))));НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($C2);$C2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2);ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="-";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))))+1))-ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="-";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))))+ЕСЛИ(НЕ(НЕ($G$1));ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($C2);$C2));0)));"Не найдено");"")</t>
+    <t>ECCEL&lt;2021 =ЕСЛИ(ИЛИ($B2&lt;&gt;"";$C2&lt;&gt;"");ЕСЛИОШИБКА(СЖПРОБЕЛЫ(ПСТР($A2;ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="-";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))));ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($C2);$C2)="";ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+1+ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))));НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($C2);$C2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2);ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="-";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))))+1))-ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="-";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))))+ЕСЛИ(НЕ(НЕ($G$1));ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($C2);$C2));0)));"Не найдено");"")</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>;</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -447,6 +447,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -765,7 +768,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -783,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -806,16 +809,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" s="8" t="str">
-        <f>IF(AND($B2&lt;&gt;"",$C2&lt;&gt;""),IFERROR(TRIM(MID($A2,IF(IF(NOT($I$1),LOWER($B2),$B2)="-",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2)))),IF(IF(NOT($I$1),LOWER($C2),$C2)="-",LEN(IF(NOT($I$1),LOWER($A2),$A2))+1+IF(IF(NOT($I$1),LOWER($B2),$B2)="-",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2)))),FIND(IF(NOT($I$1),LOWER($C2),$C2),IF(NOT($I$1),LOWER($A2),$A2),IF(IF(NOT($I$1),LOWER($B2),$B2)="-",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2))))+1))-IF(IF(NOT($I$1),LOWER($B2),$B2)="-",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C2),$C2)),0))),"Не найдено"),"")</f>
+        <f>IF(OR($B2&lt;&gt;"",$C2&lt;&gt;""),IFERROR(TRIM(MID($A2,IF(IF(NOT($I$1),LOWER($B2),$B2)="-",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2)))),IF(IF(NOT($I$1),LOWER($C2),$C2)="",LEN(IF(NOT($I$1),LOWER($A2),$A2))+1+IF(IF(NOT($I$1),LOWER($B2),$B2)="",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2)))),FIND(IF(NOT($I$1),LOWER($C2),$C2),IF(NOT($I$1),LOWER($A2),$A2),IF(IF(NOT($I$1),LOWER($B2),$B2)="-",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2))))+1))-IF(IF(NOT($I$1),LOWER($B2),$B2)="-",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C2),$C2)),0))),"Не найдено"),"")</f>
         <v>90406326</v>
       </c>
     </row>
@@ -824,12 +827,12 @@
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="F3" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Reg.xlsx
+++ b/Excel/Reg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011BF6BE-A01A-4563-8CD2-4B6B2A2AA032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4C75EB-1BC7-4660-80F7-BC448C4E1F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17028C15-A9BE-46B8-AD41-4B1A89B3A6E3}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="131">
   <si>
     <t>Данные</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>Регистр:</t>
-  </si>
-  <si>
-    <t>Заказ № 90406326 / 90406326;</t>
   </si>
   <si>
     <t>С:</t>
@@ -135,10 +132,373 @@
     <t>ECCEL&lt;2021 =ЕСЛИ(ИЛИ($B2&lt;&gt;"";$C2&lt;&gt;"");ЕСЛИОШИБКА(СЖПРОБЕЛЫ(ПСТР($A2;ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="-";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))));ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($C2);$C2)="";ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+1+ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))));НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($C2);$C2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2);ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="-";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))))+1))-ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="-";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))))+ЕСЛИ(НЕ(НЕ($G$1));ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($C2);$C2));0)));"Не найдено");"")</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>;</t>
+    <t>100% Polyester | Colors : Navy - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>90% Nylon - 10% Polyester | Colors : Light Blue - White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes: One Size</t>
+  </si>
+  <si>
+    <t>90% Nylon - 10% Polyester | Colors : Light Blue -White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>80% Recycled Polyester RecyclГ© 20% Wool/Laine | Colors : Pink - Cream - Pearl - Rust - Khaki - Beige - Blue - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Acrylic | Colors : Denim - Beige - Grey - Taupe - Navy - Offwhite - Black - Pearl - Pink Sizes: One size</t>
+  </si>
+  <si>
+    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Colors : Blue - Burgundy - Brown - Green Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Colors : Green - Blue - Burgundy - Taupe Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Colors : Green - Brown - Burgundy - Blue Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>80% Wool - 20% Polyamid | Colors : Charcoal - Taupe - Navy - Brown - Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>50% Wool - 30% Polyester - 10% Silk - 10% Acrylic | Colors : Black - Burgundy - Green - Navy Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Virgin Wool | Colors : Green - Brown Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Polyester | Colors : Beige - Grey Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool | Colors : Grey - Blue - Rust - Burgundy Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Wool | Colors : Taupe - Charcoal  Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Virgin Wool | Colors : Blue - Brown Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Virgin Wool | Colors : Charcoal - Navy Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Cotton | Colors : Black - Navy - Taupe Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>80% Wool - 20% Polyamid | Colors : Blue - Patchwork - Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>50% Wool - 50% Polyester | Colors : Blue - Brown Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Cotton | Colors : Black - Taupe - Blue Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>94% Polyester - 6% Nylon | Colors : Brown - Beige Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>94% Polyester - 6% Nylon | Colors : Beige - Brown Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Colors : Brown - Cognac - Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Colors : Cognac - Brown - Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Colors : Washed Black - Washed Brown Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Colors : Washed Brown - Washed Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Colors : Cognac-Black - Brown Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Colors : Cognac - Brown - Charcoal - Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Wool | Colors : Rust - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Wool | Colors : Navy - Rust Sizes: One size</t>
+  </si>
+  <si>
+    <t>98% Cotton - 2% Elastane | Colors : Charcoal - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>98% Cotton - 2% Elastane | Colors : Navy - Charcoal Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Cotton | Colors : Green - Black - Grey - Blue - Tobacco Sizes: 57 - 59</t>
+  </si>
+  <si>
+    <t>100% Cotton | Colors : Beige - Mustard - Old pink - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Polyester | Colors : Black - Navy 100% Polyester Sizes: One size</t>
+  </si>
+  <si>
+    <t>94% Polyester – 6% Nylon | Colors : Brown - Beige Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>Wool - 50% Polyester - 35% Viscose  | Colors : Black - Charcoal - Grey 15% Sizes: One size</t>
+  </si>
+  <si>
+    <t>70% Wool - 30% Polyamid | Colors : Charcoal - Beige - Brown - Blue Sizes: One size</t>
+  </si>
+  <si>
+    <t>10% Cotton - 57% Polyester - 33% Acrylic | Colors : Green - Charcoal - Blue Sizes: M 9,5' - L 10' - XL 10,5'</t>
+  </si>
+  <si>
+    <t>10% Cotton - 57% Polyester - 33% Acrylic | Colors : Green - Blue - Charcoal Sizes: One Size</t>
+  </si>
+  <si>
+    <t>100% Corduroy Cotton | Colors : Black - Navy Sizes: T.U. - One size</t>
+  </si>
+  <si>
+    <t>100% Cotton | Colors : Navy - Black Sizes: T.U. - One size</t>
+  </si>
+  <si>
+    <t>100% Buffalo Leather | Colors : Black - Brown Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>61% Cotton - 36% Polyester - 3%PU | Colors : Navy - Black - Brown Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>60% Cotton - 40% Polyester | Color : Washed Brown (Non-waterproof) Colors : Brown - Charcoal (Waterproof) Sizes: 57 - 59</t>
+  </si>
+  <si>
+    <t>61% Cotton - 36% Polyester - 3%PU | Colors : Navy - Brown - Black Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Cotton | Colors : Mustard - Black - Old pink - Beige Sizes: M - L</t>
+  </si>
+  <si>
+    <t>60% Cotton - 40% Polyester | Colors : Brown (Waterproof) - Charcoal (Waterproof) - Washed Brown (Non-waterproof) Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>45% Cotton - 55% Polyester | Colors : Brown (Waterproof) - Charcoal (Waterproof)- Washed Brown (Non-waterproof) Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>60% Cotton - 40% Polyester | Colors : Charcoal (Waterproof) - Brown (Waterproof) - Washed Brown (Non-waterproof) Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>100% Polyester | Colors : Black - Brown Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors : Grey - Charcoal - Green - Brown Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors : Brown - Black Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors : Green - Navy - Black Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors : Navy - Black - Camel - Grey - Rust Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors : Charcoal - Pink - Grey - Blue - Mustard - Beige Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors : Black - Charcoal - Brown Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors : Navy - Green - Brown - Black - Camel Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors : Black - Camel Sizes: 57 - 59</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors : Black - Brown - Navy Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors : Charcoal - Green - Brown - Red - Navy - Camel - Black Sizes: 56 - 58</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors : Grey - Beige - Navy - Pink - Green - Rust Sizes: 55 - 57 - 59</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors : Navy - Pink - Rust - Red - Green - Grey - Beige Sizes: 57</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors : Beige - Grey - Rust - Red - Navy - Pink - Green Sizes: 55 - 57 - 59</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors : Grey - Navy - Green - Rust - Red - Beige - Pink Sizes: 57</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors : Black - Navy - Burgundy - Green Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>98% Recycled Polyester - 2% Spandex | Colors : Beige - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Beige - Pink - Black - Grey Sizes: 53 - 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Beige - Black - Pink - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Polyester | Colors : White - Beige - Black Sizes: One size (57)</t>
+  </si>
+  <si>
+    <t>100% Polyester | Colors : White - Beige - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Blue - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Polyester | Colors : Black - Brown - Charcoal Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>72% Acrylic - 25% Nylon - 4% Elasthan | Colors : Beige - Grey - Purple - Pink Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Purple - Pink - Blue Sizes: One size</t>
+  </si>
+  <si>
+    <t>67% Acrylic - 29% Nylon - 4% Elasthan | Colors : Grey - Black - Rust Sizes: One size</t>
+  </si>
+  <si>
+    <t>52% Acrylic - 28% Nylon - 28% Polyester | Colors : Black - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>67% Acrylic - 29% Nylon - 4% Elasthan | Colors : Beige - White - Blue - Grey - Pink - Black - Green Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Beige - Black - Purple Sizes: One size</t>
+  </si>
+  <si>
+    <t>90% Nylon - 10% Polyester | Colors : Light Blue - White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Blue - Black - Mustard - Grey - Red Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Beige - Khaki - Offwhite - Black - Brown Sizes: One size</t>
+  </si>
+  <si>
+    <t>72% Acrylic - 25% Nylon - 4% Elasthan | Colors : Khaki - Navy - Charcoal Sizes: One size</t>
+  </si>
+  <si>
+    <t>70% Acrylic - 30% Nylon | Colors : Black - Red - Navy - Blue Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Black - Red - Navy - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Charcoal - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Black - Charcoal - Khaki - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Khaki - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Grey - Khaki - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>80% Lambswool - 20% Nylon | Colors : Navy - Green - Rust Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Black - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>50% Acrylic - 45% Nylon - 5% Wool | Colors : Beige - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Beige - Mustard - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Navy - Black - Mustard - Khaki - Blue Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Beige - Black - Charcoal Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Denim - Navy - Black -Offwhite - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Denim - Navy - Black -Offwhite - Grey Sizes: One size (160x25cm)</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Mustard - Denim - Offwhite - Black - Pink - Grey - Burgundy Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Mustard - Denim - Offwhite - Black - Pink - Grey - Burgundy Sizes: One size (180x35cm)</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Acrylic | Colors : Black - Beige - White - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Mustard - Purple - Blue - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Offwhite - Grey - Black - Taupe Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : White - Black - Grey - Mustard Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Green - Putty - Grey - Offwhite - Purple - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>67% Acrylic - 27% Nylon - 3% Spandex - 3% Polyester | Colors : Blue - Offwhite Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors : Black - Beige - Pink - Blue Sizes: One size</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Acrylic | Colors : Beige - Taupe - Blue - Raspberry - White - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Acrylic | Colors : Black - Beige - Grey - Offwhite Sizes: One size</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Acrylic | Colors : Beige - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>10% Cotton - 57% Polyester - 33% Acrylic | Colors : Charcoal Sizes: M 9,5 - L 10 - XL 10,5</t>
+  </si>
+  <si>
+    <t>80% Acrylic - 20% Nylon | Colors : Black - Charcoal - Khaki - Navy Sizes: One size (10)</t>
+  </si>
+  <si>
+    <t>70% Acrylic - 30% Nylon | Colors : Navy - Grey - Black Sizes: One size (10)</t>
+  </si>
+  <si>
+    <t>100% Leather | Colors : Black Sizes: 7 - 7,5 - 8 - 8,5 - 9 - 9,5 - 10 - 10,5</t>
+  </si>
+  <si>
+    <t>80% Wool - 20% Polyamid | Colors : Brown - Black Sizes: One Size</t>
+  </si>
+  <si>
+    <t>97% Acrylic - 3% Elasthan | Colors : Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>80% Wool - 20% Polyamid | Colors : Grey Sizes: S 7' - M 7,5' - L 8' - XL 8,5'</t>
+  </si>
+  <si>
+    <t>97% Acrylic - 3% Elasthan | Colors : Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>80% Acrylic - 20% Nylon | Colors : Grey - Khaki - White - Black Sizes: One size (8,5)</t>
+  </si>
+  <si>
+    <t>80% Acrylic - 20% Nylon | Colors : Beige - Black - Mustard - Red Sizes: One size (8,5)</t>
+  </si>
+  <si>
+    <t>80% Acrylic - 20% Nylon | Colors : Red - Grey - Mustard - Khaki - Black Sizes: One size (8,5)</t>
+  </si>
+  <si>
+    <t>50% Acrylic - 30% Wool - 20% Nylon | Colors : Navy - Grey - Charcoal - Black Sizes: One size (8,5)</t>
+  </si>
+  <si>
+    <t>Sizes:</t>
   </si>
 </sst>
 </file>
@@ -410,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,9 +781,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -764,29 +1121,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4141526D-3319-4923-BDB2-869119E6423E}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="135.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" customWidth="1"/>
     <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="12" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -794,45 +1151,1908 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="14">
+      <c r="G1" s="13">
         <v>0</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="16">
+      <c r="I1" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="str">
+        <f>IF(OR($B2&lt;&gt;"",$C2&lt;&gt;""),IFERROR(TRIM(MID($A2,IF(IF(NOT($I$1),LOWER($B2),$B2)="-",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2)))),IF(IF(NOT($I$1),LOWER($C2),$C2)="",LEN(IF(NOT($I$1),LOWER($A2),$A2))+1+IF(IF(NOT($I$1),LOWER($B2),$B2)="",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2)))),FIND(IF(NOT($I$1),LOWER($C2),$C2),IF(NOT($I$1),LOWER($A2),$A2),IF(IF(NOT($I$1),LOWER($B2),$B2)="-",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2))))+1))-IF(IF(NOT($I$1),LOWER($B2),$B2)="-",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C2),$C2)),0))),"Не найдено"),"")</f>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="str">
+        <f t="shared" ref="D3:D66" si="0">IF(OR($B3&lt;&gt;"",$C3&lt;&gt;""),IFERROR(TRIM(MID($A3,IF(IF(NOT($I$1),LOWER($B3),$B3)="-",1,FIND(IF(NOT($I$1),LOWER($B3),$B3),IF(NOT($I$1),LOWER($A3),$A3))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B3),$B3)))),IF(IF(NOT($I$1),LOWER($C3),$C3)="",LEN(IF(NOT($I$1),LOWER($A3),$A3))+1+IF(IF(NOT($I$1),LOWER($B3),$B3)="",1,FIND(IF(NOT($I$1),LOWER($B3),$B3),IF(NOT($I$1),LOWER($A3),$A3))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B3),$B3)))),FIND(IF(NOT($I$1),LOWER($C3),$C3),IF(NOT($I$1),LOWER($A3),$A3),IF(IF(NOT($I$1),LOWER($B3),$B3)="-",1,FIND(IF(NOT($I$1),LOWER($B3),$B3),IF(NOT($I$1),LOWER($A3),$A3))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B3),$B3))))+1))-IF(IF(NOT($I$1),LOWER($B3),$B3)="-",1,FIND(IF(NOT($I$1),LOWER($B3),$B3),IF(NOT($I$1),LOWER($A3),$A3))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B3),$B3))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C3),$C3)),0))),"Не найдено"),"")</f>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S - M - L - XL</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>57 - 59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>from 53 to 63 (pre-order)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>M 9,5' - L 10' - XL 10,5'</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>One Size</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>T.U. - One size</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>T.U. - One size</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>55 - 57 - 59 - 61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>55 - 57 - 59 - 61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S - M - L - XL</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>57 - 59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S - M - L - XL</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>M - L</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>55 - 57 - 59 - 61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>55 - 57 - 59 - 61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>55 - 57 - 59 - 61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>55 - 57 - 59 - 61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S - M - L - XL</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S - M - L - XL</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S - M - L - XL</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S - M - L - XL</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>55 - 57 - 59 - 61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S - M - L - XL</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S - M - L - XL</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>55 - 57 - 59 - 61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>57 - 59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>55 - 57 - 59 - 61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>56 - 58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>55 - 57 - 59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="7" t="str">
+        <f t="shared" ref="D67:D130" si="1">IF(OR($B67&lt;&gt;"",$C67&lt;&gt;""),IFERROR(TRIM(MID($A67,IF(IF(NOT($I$1),LOWER($B67),$B67)="-",1,FIND(IF(NOT($I$1),LOWER($B67),$B67),IF(NOT($I$1),LOWER($A67),$A67))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B67),$B67)))),IF(IF(NOT($I$1),LOWER($C67),$C67)="",LEN(IF(NOT($I$1),LOWER($A67),$A67))+1+IF(IF(NOT($I$1),LOWER($B67),$B67)="",1,FIND(IF(NOT($I$1),LOWER($B67),$B67),IF(NOT($I$1),LOWER($A67),$A67))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B67),$B67)))),FIND(IF(NOT($I$1),LOWER($C67),$C67),IF(NOT($I$1),LOWER($A67),$A67),IF(IF(NOT($I$1),LOWER($B67),$B67)="-",1,FIND(IF(NOT($I$1),LOWER($B67),$B67),IF(NOT($I$1),LOWER($A67),$A67))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B67),$B67))))+1))-IF(IF(NOT($I$1),LOWER($B67),$B67)="-",1,FIND(IF(NOT($I$1),LOWER($B67),$B67),IF(NOT($I$1),LOWER($A67),$A67))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B67),$B67))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C67),$C67)),0))),"Не найдено"),"")</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>55 - 57 - 59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>S - M - L - XL</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>S - M - L - XL</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>S - M - L - XL</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>S - M - L - XL</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>53 - 55 - 57 - 59 - 61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size (57)</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>S - M - L - XL</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>53 - 55 - 57 - 59 - 61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B90" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One Size</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="str">
-        <f>IF(OR($B2&lt;&gt;"",$C2&lt;&gt;""),IFERROR(TRIM(MID($A2,IF(IF(NOT($I$1),LOWER($B2),$B2)="-",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2)))),IF(IF(NOT($I$1),LOWER($C2),$C2)="",LEN(IF(NOT($I$1),LOWER($A2),$A2))+1+IF(IF(NOT($I$1),LOWER($B2),$B2)="",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2)))),FIND(IF(NOT($I$1),LOWER($C2),$C2),IF(NOT($I$1),LOWER($A2),$A2),IF(IF(NOT($I$1),LOWER($B2),$B2)="-",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2))))+1))-IF(IF(NOT($I$1),LOWER($B2),$B2)="-",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C2),$C2)),0))),"Не найдено"),"")</f>
-        <v>90406326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="F3" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
-        <v>8</v>
+      <c r="B91" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size (160x25cm)</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size (180x35cm)</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C128" s="6"/>
+      <c r="D128" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129" s="6"/>
+      <c r="D129" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="7" t="str">
+        <f t="shared" ref="D131:D146" si="2">IF(OR($B131&lt;&gt;"",$C131&lt;&gt;""),IFERROR(TRIM(MID($A131,IF(IF(NOT($I$1),LOWER($B131),$B131)="-",1,FIND(IF(NOT($I$1),LOWER($B131),$B131),IF(NOT($I$1),LOWER($A131),$A131))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B131),$B131)))),IF(IF(NOT($I$1),LOWER($C131),$C131)="",LEN(IF(NOT($I$1),LOWER($A131),$A131))+1+IF(IF(NOT($I$1),LOWER($B131),$B131)="",1,FIND(IF(NOT($I$1),LOWER($B131),$B131),IF(NOT($I$1),LOWER($A131),$A131))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B131),$B131)))),FIND(IF(NOT($I$1),LOWER($C131),$C131),IF(NOT($I$1),LOWER($A131),$A131),IF(IF(NOT($I$1),LOWER($B131),$B131)="-",1,FIND(IF(NOT($I$1),LOWER($B131),$B131),IF(NOT($I$1),LOWER($A131),$A131))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B131),$B131))))+1))-IF(IF(NOT($I$1),LOWER($B131),$B131)="-",1,FIND(IF(NOT($I$1),LOWER($B131),$B131),IF(NOT($I$1),LOWER($A131),$A131))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B131),$B131))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C131),$C131)),0))),"Не найдено"),"")</f>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C132" s="6"/>
+      <c r="D132" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B134" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C134" s="6"/>
+      <c r="D134" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>M 9,5 - L 10 - XL 10,5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>One size (10)</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>One size (10)</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B137" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>7 - 7,5 - 8 - 8,5 - 9 - 9,5 - 10 - 10,5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>One Size</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C140" s="6"/>
+      <c r="D140" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>S 7' - M 7,5' - L 8' - XL 8,5'</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>One size</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B142" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>One size (8,5)</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>One size (8,5)</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>One size (8,5)</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>One size (8,5)</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C146" s="6"/>
+      <c r="D146" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>One size (8,5)</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Reg.xlsx
+++ b/Excel/Reg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4C75EB-1BC7-4660-80F7-BC448C4E1F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEC2AC2-0D66-450F-A68F-9969E090DB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17028C15-A9BE-46B8-AD41-4B1A89B3A6E3}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="130">
   <si>
     <t>Данные</t>
   </si>
@@ -132,373 +132,370 @@
     <t>ECCEL&lt;2021 =ЕСЛИ(ИЛИ($B2&lt;&gt;"";$C2&lt;&gt;"");ЕСЛИОШИБКА(СЖПРОБЕЛЫ(ПСТР($A2;ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="-";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))));ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($C2);$C2)="";ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+1+ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))));НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($C2);$C2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2);ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="-";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))))+1))-ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="-";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))))+ЕСЛИ(НЕ(НЕ($G$1));ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($C2);$C2));0)));"Не найдено");"")</t>
   </si>
   <si>
-    <t>100% Polyester | Colors : Navy - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>90% Nylon - 10% Polyester | Colors : Light Blue - White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes: One Size</t>
-  </si>
-  <si>
-    <t>90% Nylon - 10% Polyester | Colors : Light Blue -White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>80% Recycled Polyester RecyclГ© 20% Wool/Laine | Colors : Pink - Cream - Pearl - Rust - Khaki - Beige - Blue - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>30% Wool - 70% Acrylic | Colors : Denim - Beige - Grey - Taupe - Navy - Offwhite - Black - Pearl - Pink Sizes: One size</t>
-  </si>
-  <si>
-    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Colors : Blue - Burgundy - Brown - Green Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Colors : Green - Blue - Burgundy - Taupe Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Colors : Green - Brown - Burgundy - Blue Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>80% Wool - 20% Polyamid | Colors : Charcoal - Taupe - Navy - Brown - Black Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>50% Wool - 30% Polyester - 10% Silk - 10% Acrylic | Colors : Black - Burgundy - Green - Navy Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Virgin Wool | Colors : Green - Brown Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>30% Wool - 70% Polyester | Colors : Beige - Grey Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Wool | Colors : Grey - Blue - Rust - Burgundy Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Wool | Colors : Taupe - Charcoal  Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Virgin Wool | Colors : Blue - Brown Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Virgin Wool | Colors : Charcoal - Navy Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Cotton | Colors : Black - Navy - Taupe Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>80% Wool - 20% Polyamid | Colors : Blue - Patchwork - Black Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>50% Wool - 50% Polyester | Colors : Blue - Brown Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Cotton | Colors : Black - Taupe - Blue Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>94% Polyester - 6% Nylon | Colors : Brown - Beige Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>94% Polyester - 6% Nylon | Colors : Beige - Brown Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Leather | Colors : Brown - Cognac - Black Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Leather | Colors : Cognac - Brown - Black Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Leather | Colors : Washed Black - Washed Brown Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Leather | Colors : Washed Brown - Washed Black Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Leather | Colors : Cognac-Black - Brown Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Leather | Colors : Cognac - Brown - Charcoal - Black Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Wool | Colors : Rust - Navy Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Wool | Colors : Navy - Rust Sizes: One size</t>
-  </si>
-  <si>
-    <t>98% Cotton - 2% Elastane | Colors : Charcoal - Navy Sizes: One size</t>
-  </si>
-  <si>
-    <t>98% Cotton - 2% Elastane | Colors : Navy - Charcoal Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Cotton | Colors : Green - Black - Grey - Blue - Tobacco Sizes: 57 - 59</t>
-  </si>
-  <si>
-    <t>100% Cotton | Colors : Beige - Mustard - Old pink - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Polyester | Colors : Black - Navy 100% Polyester Sizes: One size</t>
-  </si>
-  <si>
-    <t>94% Polyester – 6% Nylon | Colors : Brown - Beige Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>Wool - 50% Polyester - 35% Viscose  | Colors : Black - Charcoal - Grey 15% Sizes: One size</t>
-  </si>
-  <si>
-    <t>70% Wool - 30% Polyamid | Colors : Charcoal - Beige - Brown - Blue Sizes: One size</t>
-  </si>
-  <si>
-    <t>10% Cotton - 57% Polyester - 33% Acrylic | Colors : Green - Charcoal - Blue Sizes: M 9,5' - L 10' - XL 10,5'</t>
-  </si>
-  <si>
-    <t>10% Cotton - 57% Polyester - 33% Acrylic | Colors : Green - Blue - Charcoal Sizes: One Size</t>
-  </si>
-  <si>
-    <t>100% Corduroy Cotton | Colors : Black - Navy Sizes: T.U. - One size</t>
-  </si>
-  <si>
-    <t>100% Cotton | Colors : Navy - Black Sizes: T.U. - One size</t>
-  </si>
-  <si>
-    <t>100% Buffalo Leather | Colors : Black - Brown Sizes: 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t>61% Cotton - 36% Polyester - 3%PU | Colors : Navy - Black - Brown Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>60% Cotton - 40% Polyester | Color : Washed Brown (Non-waterproof) Colors : Brown - Charcoal (Waterproof) Sizes: 57 - 59</t>
-  </si>
-  <si>
-    <t>61% Cotton - 36% Polyester - 3%PU | Colors : Navy - Brown - Black Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Cotton | Colors : Mustard - Black - Old pink - Beige Sizes: M - L</t>
-  </si>
-  <si>
-    <t>60% Cotton - 40% Polyester | Colors : Brown (Waterproof) - Charcoal (Waterproof) - Washed Brown (Non-waterproof) Sizes: 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t>45% Cotton - 55% Polyester | Colors : Brown (Waterproof) - Charcoal (Waterproof)- Washed Brown (Non-waterproof) Sizes: 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t>60% Cotton - 40% Polyester | Colors : Charcoal (Waterproof) - Brown (Waterproof) - Washed Brown (Non-waterproof) Sizes: 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t>100% Polyester | Colors : Black - Brown Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors : Grey - Charcoal - Green - Brown Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors : Brown - Black Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors : Green - Navy - Black Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors : Navy - Black - Camel - Grey - Rust Sizes: 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors : Charcoal - Pink - Grey - Blue - Mustard - Beige Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors : Black - Charcoal - Brown Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors : Navy - Green - Brown - Black - Camel Sizes: 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors : Black - Camel Sizes: 57 - 59</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors : Black - Brown - Navy Sizes: 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors : Charcoal - Green - Brown - Red - Navy - Camel - Black Sizes: 56 - 58</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors : Grey - Beige - Navy - Pink - Green - Rust Sizes: 55 - 57 - 59</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors : Navy - Pink - Rust - Red - Green - Grey - Beige Sizes: 57</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors : Beige - Grey - Rust - Red - Navy - Pink - Green Sizes: 55 - 57 - 59</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors : Grey - Navy - Green - Rust - Red - Beige - Pink Sizes: 57</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors : Black - Navy - Burgundy - Green Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>98% Recycled Polyester - 2% Spandex | Colors : Beige - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Beige - Pink - Black - Grey Sizes: 53 - 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Beige - Black - Pink - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Polyester | Colors : White - Beige - Black Sizes: One size (57)</t>
-  </si>
-  <si>
-    <t>100% Polyester | Colors : White - Beige - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Blue - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Polyester | Colors : Black - Brown - Charcoal Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>72% Acrylic - 25% Nylon - 4% Elasthan | Colors : Beige - Grey - Purple - Pink Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Purple - Pink - Blue Sizes: One size</t>
-  </si>
-  <si>
-    <t>67% Acrylic - 29% Nylon - 4% Elasthan | Colors : Grey - Black - Rust Sizes: One size</t>
-  </si>
-  <si>
-    <t>52% Acrylic - 28% Nylon - 28% Polyester | Colors : Black - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>67% Acrylic - 29% Nylon - 4% Elasthan | Colors : Beige - White - Blue - Grey - Pink - Black - Green Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Beige - Black - Purple Sizes: One size</t>
-  </si>
-  <si>
-    <t>90% Nylon - 10% Polyester | Colors : Light Blue - White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Blue - Black - Mustard - Grey - Red Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Beige - Khaki - Offwhite - Black - Brown Sizes: One size</t>
-  </si>
-  <si>
-    <t>72% Acrylic - 25% Nylon - 4% Elasthan | Colors : Khaki - Navy - Charcoal Sizes: One size</t>
-  </si>
-  <si>
-    <t>70% Acrylic - 30% Nylon | Colors : Black - Red - Navy - Blue Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Black - Red - Navy - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Charcoal - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Black - Charcoal - Khaki - Navy Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Khaki - Navy Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Grey - Khaki - Navy Sizes: One size</t>
-  </si>
-  <si>
-    <t>80% Lambswool - 20% Nylon | Colors : Navy - Green - Rust Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Black - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>50% Acrylic - 45% Nylon - 5% Wool | Colors : Beige - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Beige - Mustard - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Navy - Black - Mustard - Khaki - Blue Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Beige - Black - Charcoal Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Denim - Navy - Black -Offwhite - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Denim - Navy - Black -Offwhite - Grey Sizes: One size (160x25cm)</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Mustard - Denim - Offwhite - Black - Pink - Grey - Burgundy Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Mustard - Denim - Offwhite - Black - Pink - Grey - Burgundy Sizes: One size (180x35cm)</t>
-  </si>
-  <si>
-    <t>30% Wool - 70% Acrylic | Colors : Black - Beige - White - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Mustard - Purple - Blue - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Offwhite - Grey - Black - Taupe Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : White - Black - Grey - Mustard Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Green - Putty - Grey - Offwhite - Purple - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>67% Acrylic - 27% Nylon - 3% Spandex - 3% Polyester | Colors : Blue - Offwhite Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors : Black - Beige - Pink - Blue Sizes: One size</t>
-  </si>
-  <si>
-    <t>30% Wool - 70% Acrylic | Colors : Beige - Taupe - Blue - Raspberry - White - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>30% Wool - 70% Acrylic | Colors : Black - Beige - Grey - Offwhite Sizes: One size</t>
-  </si>
-  <si>
-    <t>30% Wool - 70% Acrylic | Colors : Beige - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>10% Cotton - 57% Polyester - 33% Acrylic | Colors : Charcoal Sizes: M 9,5 - L 10 - XL 10,5</t>
-  </si>
-  <si>
-    <t>80% Acrylic - 20% Nylon | Colors : Black - Charcoal - Khaki - Navy Sizes: One size (10)</t>
-  </si>
-  <si>
-    <t>70% Acrylic - 30% Nylon | Colors : Navy - Grey - Black Sizes: One size (10)</t>
-  </si>
-  <si>
-    <t>100% Leather | Colors : Black Sizes: 7 - 7,5 - 8 - 8,5 - 9 - 9,5 - 10 - 10,5</t>
-  </si>
-  <si>
-    <t>80% Wool - 20% Polyamid | Colors : Brown - Black Sizes: One Size</t>
-  </si>
-  <si>
-    <t>97% Acrylic - 3% Elasthan | Colors : Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>80% Wool - 20% Polyamid | Colors : Grey Sizes: S 7' - M 7,5' - L 8' - XL 8,5'</t>
-  </si>
-  <si>
-    <t>97% Acrylic - 3% Elasthan | Colors : Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>80% Acrylic - 20% Nylon | Colors : Grey - Khaki - White - Black Sizes: One size (8,5)</t>
-  </si>
-  <si>
-    <t>80% Acrylic - 20% Nylon | Colors : Beige - Black - Mustard - Red Sizes: One size (8,5)</t>
-  </si>
-  <si>
-    <t>80% Acrylic - 20% Nylon | Colors : Red - Grey - Mustard - Khaki - Black Sizes: One size (8,5)</t>
-  </si>
-  <si>
-    <t>50% Acrylic - 30% Wool - 20% Nylon | Colors : Navy - Grey - Charcoal - Black Sizes: One size (8,5)</t>
-  </si>
-  <si>
     <t>Sizes:</t>
+  </si>
+  <si>
+    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Colors: Blue - Burgundy - Brown - Green Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Colors: Green - Blue - Burgundy - Taupe Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Colors: Green - Brown - Burgundy - Blue Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>80% Wool - 20% Polyamid | Colors: Charcoal - Taupe - Navy - Brown - Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>50% Wool - 30% Polyester - 10% Silk - 10% Acrylic | Colors: Black - Burgundy - Green - Navy Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Virgin Wool | Colors: Green - Brown Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Polyester | Colors: Beige - Grey Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Virgin Wool | Colors: Type Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Virgin Wool | Colors: Blue - Brown Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Virgin Wool | Colors: Charcoal - Navy Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Cotton | Colors: Black - Navy - Taupe Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>80% Wool - 20% Polyamid | Colors: Blue - Patchwork - Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>50% Wool - 50% Polyester | Colors: Blue - Brown Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Cotton | Colors: Black - Taupe - Blue Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>94% Polyester вЂ“ 6% Nylon | Colors: Brown - Beige Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Colors: Brown - Cognac - Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Colors: Cognac - Brown - Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Colors: Washed Black - Washed Brown Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Colors: Washed Brown - Washed Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Colors: Cognac-Black - Brown Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Colors: Cognac - Brown - Charcoal - Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Wool | Colors: Rust - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Wool | Colors: Navy - Rust Sizes: One size</t>
+  </si>
+  <si>
+    <t>98% Cotton вЂ“ 2% Elastane | Colors: Charcoal - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>98% Cotton вЂ“ 2% Elastane | Colors: Navy - Charcoal Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Cotton | Colors: Green - Black - Grey - Blue - Tobacco Sizes: 57 - 59</t>
+  </si>
+  <si>
+    <t>15% Wool - 50% Polyester - 35% Viscose | Colors: Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Cotton | Colors: Beige - Mustard - Old pink - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>70% Wool - 30% Polyamid | Colors: Charcoal - Beige - Brown - Blue Sizes: One size</t>
+  </si>
+  <si>
+    <t>10% Cotton - 57% Polyester - 33% Acrylic | Colors: Green - Charcoal - Blue Sizes: M 9,5' - L 10' - XL 10,5'</t>
+  </si>
+  <si>
+    <t>10% Cotton - 57% Polyester - 33% Acrylic | Colors: Green - Blue - Charcoal Sizes: One Size</t>
+  </si>
+  <si>
+    <t>100% Corduroy Cotton | Colors: Black - Navy Sizes: T.U. - One size</t>
+  </si>
+  <si>
+    <t>100% Cotton | Colors: Navy - Black Sizes: T.U. - One size</t>
+  </si>
+  <si>
+    <t>50% Wool - 50% Polyester | Colors: Navy Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>50% Wool - 50% Polyester | Colors: red - Navy - Black - Grey Sizes: T.U. - One size</t>
+  </si>
+  <si>
+    <t>61% Cotton - 36% Polyester - 3%PU | Colors: Navy - Black - Brown Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>60% Cotton - 40% Polyester | Colors: Washed Brown (Non-waterproof) Colors: Brown - Charcoal (Waterproof) Sizes: 57 - 59</t>
+  </si>
+  <si>
+    <t>61% Cotton - 36% Polyester - 3%PU | Colors: Navy - Brown - Black Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Cotton | Colors: Mustard - Black - Old pink - Beige Sizes: M - L</t>
+  </si>
+  <si>
+    <t>100% Buffalo Leather | Colors: Black - Brown Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>60% Cotton - 40% Polyester | Colors: Brown - Charcoal (Waterproof) Colors: Washed Brown (Non-waterproof) Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>45% Cotton - 55% Polyester | Colors: Brown - Charcoal (Waterproof) Colors: Washed Brown (Non-waterproof) Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>60% Cotton - 40% Polyester | Colors: Charcoal - Brown (Waterproof) Colors: Washed Brown (Non-waterproof) Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>100% Polyester | Colors: Black - Brown Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors: Grey - Charcoal - Green - Brown Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors: Brown - Black Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors: Green - Navy - Black Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors: Charcoal - Pink - Grey - Blue - Mustard - Beige Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors: Black - Charcoal - Brown Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors: Navy - Green - Brown - Black - Camel Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors: Black - Camel Sizes: 57 - 59</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors: Black - Brown - Navy Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors: Charcoal - Green - Brown - Red - Navy - Camel - Black Sizes: 56 - 58</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors: Grey - Beige - Navy - Pink - Green - Rust Sizes: 55 - 57 - 59</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors: Navy - Pink - Rust - Red - Green - Grey - Beige Sizes: 57</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors: Beige - Grey - Rust - Red - Navy - Pink - Green Sizes: 55 - 57 - 59</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors: Grey - Navy - Green - Rust - Red - Beige - Pink Sizes: 57</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors: Black Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors: Black Sizes: M - L</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Colors: Black - Navy - Burgundy - Green Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Beige - Pink - Black - Grey Sizes: 53 - 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Beige - Black - Pink - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Polyester | Colors: White - Beige - Black Sizes: One size (57)</t>
+  </si>
+  <si>
+    <t>100% Polyester | Colors: White - Beige - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>98% Recycled Polyester - 2% Spandex | Colors: Beige - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Blue - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Polyester | Colors: Black - Brown - Charcoal Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Red Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>72% Acrylic - 25% Nylon - 4% Elasthan | Colors: Beige - Grey - Purple - Pink Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Purple - Pink - Blue Sizes: One size</t>
+  </si>
+  <si>
+    <t>67% Acrylic - 29% Nylon - 4% Elasthan | Colors: Grey - Black - Rust Sizes: One size</t>
+  </si>
+  <si>
+    <t>52% Acrylic - 28% Nylon - 28% Polyester | Colors: Black - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>67% Acrylic - 29% Nylon - 4% Elasthan | Colors: Beige - White - Blue - Grey - Pink - Black - Green Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Beige - Black - Purple Sizes: One size</t>
+  </si>
+  <si>
+    <t>90% Nylon - 10% Polyester | Colors: Light Blue - White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes: One Size</t>
+  </si>
+  <si>
+    <t>90% Nylon - 10% Polyester | Colors: Light Blue -White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>90% Nylon - 10% Polyester | Colors: Light Blue - White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Blue - Black - Mustard - Grey - Red Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Beige - Khaki - Offwhite - Black - Brown Sizes: One size</t>
+  </si>
+  <si>
+    <t>72% Acrylic - 25% Nylon - 4% Elasthan | Colors: Khaki - Navy - Charcoal Sizes: One size</t>
+  </si>
+  <si>
+    <t>70% Acrylic - 30% Nylon | Colors: Black - Red - Navy - Blue Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Black - Red - Navy - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Charcoal - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Black - Charcoal - Khaki - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Khaki - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Grey - Khaki - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>80% Lambswool - 20% Nylon | Colors: Navy - Green - Rust Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Black - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>50% Acrylic - 45% Nylon - 5% Wool | Colors: Beige - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Beige - Mustard - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Navy - Black - Mustard - Khaki - Blue Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Black Sizes: One size - Gloves : One size Neckband/Tour de cou (В±25x35cm)</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Beige - Black - Charcoal Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Denim - Navy - Black -Offwhite - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Denim - Navy - Black -Offwhite - Grey Sizes: One size (160x25cm)</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Mustard - Denim - Offwhite - Black - Pink - Grey - Burgundy Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Mustard - Denim - Offwhite - Black - Pink - Grey - Burgundy Sizes: One size (180x35cm)</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Acrylic | Colors: Black - Beige - White - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Mustard - Purple - Blue - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Offwhite - Grey - Black - Taupe Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: White - Black - Grey - Mustard Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Green - Putty - Grey - Offwhite - Purple - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>67% Acrylic - 27% Nylon - 3% Spandex - 3% Polyester | Colors: Blue - Offwhite Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Colors: Black - Beige - Pink - Blue Sizes: One size</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Acrylic | Colors: Beige - Taupe - Blue - Raspberry - White - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Acrylic | Colors: Black - Beige - Grey - Offwhite Sizes: One size</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Acrylic | Colors: Beige - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>80% Recycled Polyester RecyclГ© 20% Wool/Laine | Colors: Pink - Cream - Pearl - Rust - Khaki - Beige - Blue - Black Sizes: One size/Taille unique</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Acrylic | Colors: Denim - Beige - Grey - Taupe - Navy - Offwhite - Black - Pearl - Pink Sizes: One size</t>
+  </si>
+  <si>
+    <t>10% Cotton - 57% Polyester - 33% Acrylic | Colors: Charcoal Sizes: M 9,5 - L 10 - XL 10,5</t>
+  </si>
+  <si>
+    <t>80% Acrylic - 20% Nylon | Colors: Black - Charcoal - Khaki - Navy Sizes: One size (10)</t>
+  </si>
+  <si>
+    <t>70% Acrylic - 30% Nylon | Colors: Navy - Grey - Black Sizes: One size (10)</t>
+  </si>
+  <si>
+    <t>100% Leather | Colors: Black Sizes: 7 - 7,5 - 8 - 8,5 - 9 - 9,5 - 10 - 10,5</t>
+  </si>
+  <si>
+    <t>80% Wool - 20% Polyamid | Colors: Brown - Black Sizes: 7 - 7,5 - 8 - 8,5 - 9 - 9,5 - 10 - 10,5</t>
+  </si>
+  <si>
+    <t>97% Acrylic - 3% Elasthan | Colors: Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>80% Wool - 20% Polyamid | Colors: Grey Sizes: S 7' - M 7,5' - L 8' - XL 8,5'</t>
+  </si>
+  <si>
+    <t>97% Acrylic - 3% Elasthan | Colors: Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>80% Acrylic - 20% Nylon | Colors: Grey - Khaki - White - Black Sizes: One size (8,5)</t>
+  </si>
+  <si>
+    <t>80% Acrylic - 20% Nylon | Colors: Beige - Black - Mustard - Red Sizes: One size (8,5)</t>
+  </si>
+  <si>
+    <t>80% Acrylic - 20% Nylon | Colors: Red - Grey - Mustard - Khaki - Black Sizes: One size (8,5)</t>
+  </si>
+  <si>
+    <t>50% Acrylic - 30% Wool - 20% Nylon | Colors: Navy - Grey - Charcoal - Black Sizes: One size (8,5)</t>
   </si>
 </sst>
 </file>
@@ -1166,10 +1163,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7" t="str">
@@ -1179,10 +1176,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="str">
@@ -1195,10 +1192,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="str">
@@ -1211,10 +1208,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="str">
@@ -1224,10 +1221,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="str">
@@ -1237,10 +1234,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="str">
@@ -1250,10 +1247,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="str">
@@ -1263,10 +1260,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="str">
@@ -1276,10 +1273,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="str">
@@ -1289,10 +1286,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="str">
@@ -1302,10 +1299,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="str">
@@ -1315,10 +1312,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="7" t="str">
@@ -1328,10 +1325,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="7" t="str">
@@ -1341,10 +1338,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="7" t="str">
@@ -1354,10 +1351,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="7" t="str">
@@ -1367,10 +1364,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="7" t="str">
@@ -1380,10 +1377,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7" t="str">
@@ -1393,10 +1390,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="7" t="str">
@@ -1406,10 +1403,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="7" t="str">
@@ -1419,10 +1416,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="7" t="str">
@@ -1432,10 +1429,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="7" t="str">
@@ -1445,10 +1442,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="7" t="str">
@@ -1458,10 +1455,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="7" t="str">
@@ -1471,10 +1468,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="7" t="str">
@@ -1484,10 +1481,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="7" t="str">
@@ -1497,10 +1494,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="7" t="str">
@@ -1510,10 +1507,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="7" t="str">
@@ -1523,10 +1520,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="7" t="str">
@@ -1536,10 +1533,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="7" t="str">
@@ -1549,10 +1546,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="7" t="str">
@@ -1562,10 +1559,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="7" t="str">
@@ -1575,10 +1572,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="7" t="str">
@@ -1588,10 +1585,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="7" t="str">
@@ -1601,10 +1598,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="7" t="str">
@@ -1614,10 +1611,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="7" t="str">
@@ -1627,10 +1624,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="7" t="str">
@@ -1640,23 +1637,23 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>One size</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="7" t="str">
@@ -1666,10 +1663,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="7" t="str">
@@ -1679,10 +1676,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="7" t="str">
@@ -1692,10 +1689,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="7" t="str">
@@ -1705,10 +1702,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="7" t="str">
@@ -1718,10 +1715,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="7" t="str">
@@ -1731,36 +1728,36 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>55 - 57 - 59 - 61</v>
+        <v>S - M - L - XL</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>55 - 57 - 59 - 61</v>
+        <v>T.U. - One size</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="7" t="str">
@@ -1770,10 +1767,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="7" t="str">
@@ -1783,10 +1780,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="7" t="str">
@@ -1796,10 +1793,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="7" t="str">
@@ -1809,10 +1806,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="7" t="str">
@@ -1822,10 +1819,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="7" t="str">
@@ -1835,10 +1832,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="7" t="str">
@@ -1848,10 +1845,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="7" t="str">
@@ -1861,10 +1858,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="7" t="str">
@@ -1874,10 +1871,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="7" t="str">
@@ -1887,10 +1884,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="7" t="str">
@@ -1900,10 +1897,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="7" t="str">
@@ -1913,23 +1910,23 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>55 - 57 - 59 - 61</v>
+        <v>S - M - L - XL</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="7" t="str">
@@ -1939,10 +1936,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="7" t="str">
@@ -1952,10 +1949,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="7" t="str">
@@ -1965,10 +1962,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="7" t="str">
@@ -1978,10 +1975,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="7" t="str">
@@ -1991,10 +1988,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="7" t="str">
@@ -2004,10 +2001,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="7" t="str">
@@ -2017,10 +2014,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="7" t="str">
@@ -2030,10 +2027,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="7" t="str">
@@ -2043,10 +2040,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="7" t="str">
@@ -2056,10 +2053,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="7" t="str">
@@ -2069,23 +2066,23 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>S - M - L - XL</v>
+        <v>M - L</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="7" t="str">
@@ -2095,10 +2092,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="7" t="str">
@@ -2108,36 +2105,36 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>S - M - L - XL</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>S - M - L - XL</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="7" t="str">
@@ -2147,10 +2144,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="7" t="str">
@@ -2160,10 +2157,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="7" t="str">
@@ -2173,10 +2170,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="7" t="str">
@@ -2186,10 +2183,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="7" t="str">
@@ -2199,10 +2196,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="7" t="str">
@@ -2212,10 +2209,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="7" t="str">
@@ -2228,20 +2225,20 @@
         <v>76</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>53 - 55 - 57 - 59 - 61</v>
+        <v>S - M - L - XL</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="7" t="str">
@@ -2251,10 +2248,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="7" t="str">
@@ -2264,10 +2261,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="7" t="str">
@@ -2277,10 +2274,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="7" t="str">
@@ -2290,10 +2287,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="7" t="str">
@@ -2303,10 +2300,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="7" t="str">
@@ -2316,10 +2313,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="7" t="str">
@@ -2329,10 +2326,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="7" t="str">
@@ -2342,10 +2339,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="7" t="str">
@@ -2355,10 +2352,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="7" t="str">
@@ -2368,10 +2365,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="7" t="str">
@@ -2381,10 +2378,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="7" t="str">
@@ -2394,10 +2391,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="7" t="str">
@@ -2407,10 +2404,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="7" t="str">
@@ -2420,10 +2417,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="7" t="str">
@@ -2433,10 +2430,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="7" t="str">
@@ -2446,10 +2443,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="7" t="str">
@@ -2459,10 +2456,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="7" t="str">
@@ -2472,10 +2469,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="7" t="str">
@@ -2485,10 +2482,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="7" t="str">
@@ -2498,10 +2495,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="7" t="str">
@@ -2511,10 +2508,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="7" t="str">
@@ -2524,10 +2521,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="7" t="str">
@@ -2537,23 +2534,23 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>One size - Gloves : One size Neckband/Tour de cou (В±25x35cm)</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="7" t="str">
@@ -2563,10 +2560,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="7" t="str">
@@ -2576,10 +2573,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="7" t="str">
@@ -2589,10 +2586,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="7" t="str">
@@ -2602,10 +2599,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="7" t="str">
@@ -2615,10 +2612,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="7" t="str">
@@ -2628,10 +2625,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="7" t="str">
@@ -2641,10 +2638,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="7" t="str">
@@ -2654,10 +2651,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="7" t="str">
@@ -2667,10 +2664,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="7" t="str">
@@ -2680,10 +2677,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="7" t="str">
@@ -2693,10 +2690,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="7" t="str">
@@ -2706,10 +2703,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="7" t="str">
@@ -2719,10 +2716,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="7" t="str">
@@ -2732,10 +2729,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="7" t="str">
@@ -2745,10 +2742,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="7" t="str">
@@ -2758,10 +2755,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="7" t="str">
@@ -2771,62 +2768,62 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>One size/Taille unique</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>One size/Taille unique</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>One size/Taille unique</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>One size/Taille unique</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="7" t="str">
@@ -2836,10 +2833,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="7" t="str">
@@ -2849,10 +2846,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="7" t="str">
@@ -2862,10 +2859,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="7" t="str">
@@ -2875,10 +2872,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="7" t="str">
@@ -2891,7 +2888,7 @@
         <v>118</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="7" t="str">
@@ -2904,7 +2901,7 @@
         <v>119</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="7" t="str">
@@ -2917,7 +2914,7 @@
         <v>120</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="7" t="str">
@@ -2930,7 +2927,7 @@
         <v>121</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="7" t="str">
@@ -2943,12 +2940,12 @@
         <v>122</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>One Size</v>
+        <v>7 - 7,5 - 8 - 8,5 - 9 - 9,5 - 10 - 10,5</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2956,7 +2953,7 @@
         <v>123</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="7" t="str">
@@ -2969,7 +2966,7 @@
         <v>124</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="7" t="str">
@@ -2982,7 +2979,7 @@
         <v>125</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="7" t="str">
@@ -2995,7 +2992,7 @@
         <v>126</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="7" t="str">
@@ -3008,7 +3005,7 @@
         <v>126</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="7" t="str">
@@ -3021,7 +3018,7 @@
         <v>127</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="7" t="str">
@@ -3034,7 +3031,7 @@
         <v>128</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="7" t="str">
@@ -3047,7 +3044,7 @@
         <v>129</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="7" t="str">

--- a/Excel/Reg.xlsx
+++ b/Excel/Reg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEC2AC2-0D66-450F-A68F-9969E090DB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9B2C25-F9E8-4C56-8C2B-9AF3996AD007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17028C15-A9BE-46B8-AD41-4B1A89B3A6E3}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="131">
   <si>
     <t>Данные</t>
   </si>
@@ -135,367 +135,370 @@
     <t>Sizes:</t>
   </si>
   <si>
-    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Colors: Blue - Burgundy - Brown - Green Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Colors: Green - Blue - Burgundy - Taupe Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Colors: Green - Brown - Burgundy - Blue Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>80% Wool - 20% Polyamid | Colors: Charcoal - Taupe - Navy - Brown - Black Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>50% Wool - 30% Polyester - 10% Silk - 10% Acrylic | Colors: Black - Burgundy - Green - Navy Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Virgin Wool | Colors: Green - Brown Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>30% Wool - 70% Polyester | Colors: Beige - Grey Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Virgin Wool | Colors: Type Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Virgin Wool | Colors: Blue - Brown Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Virgin Wool | Colors: Charcoal - Navy Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Cotton | Colors: Black - Navy - Taupe Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>80% Wool - 20% Polyamid | Colors: Blue - Patchwork - Black Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>50% Wool - 50% Polyester | Colors: Blue - Brown Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Cotton | Colors: Black - Taupe - Blue Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>94% Polyester вЂ“ 6% Nylon | Colors: Brown - Beige Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Leather | Colors: Brown - Cognac - Black Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Leather | Colors: Cognac - Brown - Black Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Leather | Colors: Washed Black - Washed Brown Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Leather | Colors: Washed Brown - Washed Black Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Leather | Colors: Cognac-Black - Brown Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Leather | Colors: Cognac - Brown - Charcoal - Black Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Wool | Colors: Rust - Navy Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Wool | Colors: Navy - Rust Sizes: One size</t>
-  </si>
-  <si>
-    <t>98% Cotton вЂ“ 2% Elastane | Colors: Charcoal - Navy Sizes: One size</t>
-  </si>
-  <si>
-    <t>98% Cotton вЂ“ 2% Elastane | Colors: Navy - Charcoal Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Cotton | Colors: Green - Black - Grey - Blue - Tobacco Sizes: 57 - 59</t>
-  </si>
-  <si>
-    <t>15% Wool - 50% Polyester - 35% Viscose | Colors: Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Cotton | Colors: Beige - Mustard - Old pink - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>70% Wool - 30% Polyamid | Colors: Charcoal - Beige - Brown - Blue Sizes: One size</t>
-  </si>
-  <si>
-    <t>10% Cotton - 57% Polyester - 33% Acrylic | Colors: Green - Charcoal - Blue Sizes: M 9,5' - L 10' - XL 10,5'</t>
-  </si>
-  <si>
-    <t>10% Cotton - 57% Polyester - 33% Acrylic | Colors: Green - Blue - Charcoal Sizes: One Size</t>
-  </si>
-  <si>
-    <t>100% Corduroy Cotton | Colors: Black - Navy Sizes: T.U. - One size</t>
-  </si>
-  <si>
-    <t>100% Cotton | Colors: Navy - Black Sizes: T.U. - One size</t>
-  </si>
-  <si>
-    <t>50% Wool - 50% Polyester | Colors: Navy Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>50% Wool - 50% Polyester | Colors: red - Navy - Black - Grey Sizes: T.U. - One size</t>
-  </si>
-  <si>
-    <t>61% Cotton - 36% Polyester - 3%PU | Colors: Navy - Black - Brown Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>60% Cotton - 40% Polyester | Colors: Washed Brown (Non-waterproof) Colors: Brown - Charcoal (Waterproof) Sizes: 57 - 59</t>
-  </si>
-  <si>
-    <t>61% Cotton - 36% Polyester - 3%PU | Colors: Navy - Brown - Black Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Cotton | Colors: Mustard - Black - Old pink - Beige Sizes: M - L</t>
-  </si>
-  <si>
-    <t>100% Buffalo Leather | Colors: Black - Brown Sizes: 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t>60% Cotton - 40% Polyester | Colors: Brown - Charcoal (Waterproof) Colors: Washed Brown (Non-waterproof) Sizes: 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t>45% Cotton - 55% Polyester | Colors: Brown - Charcoal (Waterproof) Colors: Washed Brown (Non-waterproof) Sizes: 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t>60% Cotton - 40% Polyester | Colors: Charcoal - Brown (Waterproof) Colors: Washed Brown (Non-waterproof) Sizes: 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t>100% Polyester | Colors: Black - Brown Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors: Grey - Charcoal - Green - Brown Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors: Brown - Black Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors: Green - Navy - Black Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors: Charcoal - Pink - Grey - Blue - Mustard - Beige Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors: Black - Charcoal - Brown Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors: Navy - Green - Brown - Black - Camel Sizes: 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors: Black - Camel Sizes: 57 - 59</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors: Black - Brown - Navy Sizes: 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors: Charcoal - Green - Brown - Red - Navy - Camel - Black Sizes: 56 - 58</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors: Grey - Beige - Navy - Pink - Green - Rust Sizes: 55 - 57 - 59</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors: Navy - Pink - Rust - Red - Green - Grey - Beige Sizes: 57</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors: Beige - Grey - Rust - Red - Navy - Pink - Green Sizes: 55 - 57 - 59</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors: Grey - Navy - Green - Rust - Red - Beige - Pink Sizes: 57</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors: Black Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors: Black Sizes: M - L</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Colors: Black - Navy - Burgundy - Green Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Beige - Pink - Black - Grey Sizes: 53 - 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Beige - Black - Pink - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Polyester | Colors: White - Beige - Black Sizes: One size (57)</t>
-  </si>
-  <si>
-    <t>100% Polyester | Colors: White - Beige - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>98% Recycled Polyester - 2% Spandex | Colors: Beige - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Blue - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Polyester | Colors: Black - Brown - Charcoal Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Red Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>72% Acrylic - 25% Nylon - 4% Elasthan | Colors: Beige - Grey - Purple - Pink Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Purple - Pink - Blue Sizes: One size</t>
-  </si>
-  <si>
-    <t>67% Acrylic - 29% Nylon - 4% Elasthan | Colors: Grey - Black - Rust Sizes: One size</t>
-  </si>
-  <si>
-    <t>52% Acrylic - 28% Nylon - 28% Polyester | Colors: Black - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>67% Acrylic - 29% Nylon - 4% Elasthan | Colors: Beige - White - Blue - Grey - Pink - Black - Green Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Beige - Black - Purple Sizes: One size</t>
-  </si>
-  <si>
-    <t>90% Nylon - 10% Polyester | Colors: Light Blue - White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes: One Size</t>
-  </si>
-  <si>
-    <t>90% Nylon - 10% Polyester | Colors: Light Blue -White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>90% Nylon - 10% Polyester | Colors: Light Blue - White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Blue - Black - Mustard - Grey - Red Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Beige - Khaki - Offwhite - Black - Brown Sizes: One size</t>
-  </si>
-  <si>
-    <t>72% Acrylic - 25% Nylon - 4% Elasthan | Colors: Khaki - Navy - Charcoal Sizes: One size</t>
-  </si>
-  <si>
-    <t>70% Acrylic - 30% Nylon | Colors: Black - Red - Navy - Blue Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Black - Red - Navy - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Charcoal - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Black - Charcoal - Khaki - Navy Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Khaki - Navy Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Grey - Khaki - Navy Sizes: One size</t>
-  </si>
-  <si>
-    <t>80% Lambswool - 20% Nylon | Colors: Navy - Green - Rust Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Black - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>50% Acrylic - 45% Nylon - 5% Wool | Colors: Beige - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Beige - Mustard - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Navy - Black - Mustard - Khaki - Blue Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Black Sizes: One size - Gloves : One size Neckband/Tour de cou (В±25x35cm)</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Beige - Black - Charcoal Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Denim - Navy - Black -Offwhite - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Denim - Navy - Black -Offwhite - Grey Sizes: One size (160x25cm)</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Mustard - Denim - Offwhite - Black - Pink - Grey - Burgundy Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Mustard - Denim - Offwhite - Black - Pink - Grey - Burgundy Sizes: One size (180x35cm)</t>
-  </si>
-  <si>
-    <t>30% Wool - 70% Acrylic | Colors: Black - Beige - White - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Mustard - Purple - Blue - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Offwhite - Grey - Black - Taupe Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: White - Black - Grey - Mustard Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Green - Putty - Grey - Offwhite - Purple - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>67% Acrylic - 27% Nylon - 3% Spandex - 3% Polyester | Colors: Blue - Offwhite Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Colors: Black - Beige - Pink - Blue Sizes: One size</t>
-  </si>
-  <si>
-    <t>30% Wool - 70% Acrylic | Colors: Beige - Taupe - Blue - Raspberry - White - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>30% Wool - 70% Acrylic | Colors: Black - Beige - Grey - Offwhite Sizes: One size</t>
-  </si>
-  <si>
-    <t>30% Wool - 70% Acrylic | Colors: Beige - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>80% Recycled Polyester RecyclГ© 20% Wool/Laine | Colors: Pink - Cream - Pearl - Rust - Khaki - Beige - Blue - Black Sizes: One size/Taille unique</t>
-  </si>
-  <si>
-    <t>30% Wool - 70% Acrylic | Colors: Denim - Beige - Grey - Taupe - Navy - Offwhite - Black - Pearl - Pink Sizes: One size</t>
-  </si>
-  <si>
-    <t>10% Cotton - 57% Polyester - 33% Acrylic | Colors: Charcoal Sizes: M 9,5 - L 10 - XL 10,5</t>
-  </si>
-  <si>
-    <t>80% Acrylic - 20% Nylon | Colors: Black - Charcoal - Khaki - Navy Sizes: One size (10)</t>
-  </si>
-  <si>
-    <t>70% Acrylic - 30% Nylon | Colors: Navy - Grey - Black Sizes: One size (10)</t>
-  </si>
-  <si>
-    <t>100% Leather | Colors: Black Sizes: 7 - 7,5 - 8 - 8,5 - 9 - 9,5 - 10 - 10,5</t>
-  </si>
-  <si>
-    <t>80% Wool - 20% Polyamid | Colors: Brown - Black Sizes: 7 - 7,5 - 8 - 8,5 - 9 - 9,5 - 10 - 10,5</t>
-  </si>
-  <si>
-    <t>97% Acrylic - 3% Elasthan | Colors: Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>80% Wool - 20% Polyamid | Colors: Grey Sizes: S 7' - M 7,5' - L 8' - XL 8,5'</t>
-  </si>
-  <si>
-    <t>97% Acrylic - 3% Elasthan | Colors: Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>80% Acrylic - 20% Nylon | Colors: Grey - Khaki - White - Black Sizes: One size (8,5)</t>
-  </si>
-  <si>
-    <t>80% Acrylic - 20% Nylon | Colors: Beige - Black - Mustard - Red Sizes: One size (8,5)</t>
-  </si>
-  <si>
-    <t>80% Acrylic - 20% Nylon | Colors: Red - Grey - Mustard - Khaki - Black Sizes: One size (8,5)</t>
-  </si>
-  <si>
-    <t>50% Acrylic - 30% Wool - 20% Nylon | Colors: Navy - Grey - Charcoal - Black Sizes: One size (8,5)</t>
+    <t>90% Nylon - 10% Polyester | Color: Light Blue - White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes: One Size</t>
+  </si>
+  <si>
+    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Color: Blue - Burgundy - Brown - Green Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Color: Green - Blue - Burgundy - Taupe Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Color: Green - Brown - Burgundy - Blue Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>80% Wool - 20% Polyamid | Color: Charcoal - Taupe - Navy - Brown - Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>50% Wool - 30% Polyester - 10% Silk - 10% Acrylic | Color: Black - Burgundy - Green - Navy Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Virgin Wool | Color: Green - Brown Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Polyester | Color: Beige - Grey Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Virgin Wool | Color: Type Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Virgin Wool | Color: Blue - Brown Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Virgin Wool | Color: Charcoal - Navy Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Cotton | Color: Black - Navy - Taupe Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>80% Wool - 20% Polyamid | Color: Blue - Patchwork - Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>50% Wool - 50% Polyester | Color: Blue - Brown Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Cotton | Color: Black - Taupe - Blue Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>94% Polyester вЂ“ 6% Nylon | Color: Brown - Beige Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Color: Brown - Cognac - Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Color: Cognac - Brown - Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Color: Washed Black - Washed Brown Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Color: Washed Brown - Washed Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Color: Cognac-Black - Brown Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Color: Cognac - Brown - Charcoal - Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Wool | Color: Rust - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Wool | Color: Navy - Rust Sizes: One size</t>
+  </si>
+  <si>
+    <t>98% Cotton вЂ“ 2% Elastane | Color: Charcoal - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>98% Cotton вЂ“ 2% Elastane | Color: Navy - Charcoal Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Cotton | Color: Green - Black - Grey - Blue - Tobacco Sizes: 57 - 59</t>
+  </si>
+  <si>
+    <t>15% Wool - 50% Polyester - 35% Viscose | Color: Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Cotton | Color: Beige - Mustard - Old pink - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>70% Wool - 30% Polyamid | Color: Charcoal - Beige - Brown - Blue Sizes: One size</t>
+  </si>
+  <si>
+    <t>10% Cotton - 57% Polyester - 33% Acrylic | Color: Green - Charcoal - Blue Sizes: M 9,5' - L 10' - XL 10,5'</t>
+  </si>
+  <si>
+    <t>10% Cotton - 57% Polyester - 33% Acrylic | Color: Green - Blue - Charcoal Sizes: One Size</t>
+  </si>
+  <si>
+    <t>100% Corduroy Cotton | Color: Black - Navy Sizes: T.U. - One size</t>
+  </si>
+  <si>
+    <t>100% Cotton | Color: Navy - Black Sizes: T.U. - One size</t>
+  </si>
+  <si>
+    <t>50% Wool - 50% Polyester | Color: Navy Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>50% Wool - 50% Polyester | Color: red - Navy - Black - Grey Sizes: T.U. - One size</t>
+  </si>
+  <si>
+    <t>61% Cotton - 36% Polyester - 3%PU | Color: Navy - Black - Brown Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>60% Cotton - 40% Polyester | Color: Washed Brown (Non-waterproof) Color: Brown - Charcoal (Waterproof) Sizes: 57 - 59</t>
+  </si>
+  <si>
+    <t>61% Cotton - 36% Polyester - 3%PU | Color: Navy - Brown - Black Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Cotton | Color: Mustard - Black - Old pink - Beige Sizes: M - L</t>
+  </si>
+  <si>
+    <t>100% Buffalo Leather | Color: Black - Brown Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>60% Cotton - 40% Polyester | Color: Brown - Charcoal (Waterproof) Color: Washed Brown (Non-waterproof) Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>45% Cotton - 55% Polyester | Color: Brown - Charcoal (Waterproof) Color: Washed Brown (Non-waterproof) Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>60% Cotton - 40% Polyester | Color: Charcoal - Brown (Waterproof) Color: Washed Brown (Non-waterproof) Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>100% Polyester | Color: Black - Brown Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Grey - Charcoal - Green - Brown Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Brown - Black Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Green - Navy - Black Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Charcoal - Pink - Grey - Blue - Mustard - Beige Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Black - Charcoal - Brown Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Navy - Green - Brown - Black - Camel Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Black - Camel Sizes: 57 - 59</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Black - Brown - Navy Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Charcoal - Green - Brown - Red - Navy - Camel - Black Sizes: 56 - 58</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Grey - Beige - Navy - Pink - Green - Rust Sizes: 55 - 57 - 59</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Navy - Pink - Rust - Red - Green - Grey - Beige Sizes: 57</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Beige - Grey - Rust - Red - Navy - Pink - Green Sizes: 55 - 57 - 59</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Grey - Navy - Green - Rust - Red - Beige - Pink Sizes: 57</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Black Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Black Sizes: M - L</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Black - Navy - Burgundy - Green Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Beige - Pink - Black - Grey Sizes: 53 - 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Beige - Black - Pink - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Polyester | Color: White - Beige - Black Sizes: One size (57)</t>
+  </si>
+  <si>
+    <t>100% Polyester | Color: White - Beige - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>98% Recycled Polyester - 2% Spandex | Color: Beige - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Blue - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Polyester | Color: Black - Brown - Charcoal Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Red Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>72% Acrylic - 25% Nylon - 4% Elasthan | Color: Beige - Grey - Purple - Pink Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Purple - Pink - Blue Sizes: One size</t>
+  </si>
+  <si>
+    <t>67% Acrylic - 29% Nylon - 4% Elasthan | Color: Grey - Black - Rust Sizes: One size</t>
+  </si>
+  <si>
+    <t>52% Acrylic - 28% Nylon - 28% Polyester | Color: Black - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>67% Acrylic - 29% Nylon - 4% Elasthan | Color: Beige - White - Blue - Grey - Pink - Black - Green Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Beige - Black - Purple Sizes: One size</t>
+  </si>
+  <si>
+    <t>90% Nylon - 10% Polyester | Color: Light Blue -White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>90% Nylon - 10% Polyester | Color: Light Blue - White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Blue - Black - Mustard - Grey - Red Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Beige - Khaki - Offwhite - Black - Brown Sizes: One size</t>
+  </si>
+  <si>
+    <t>72% Acrylic - 25% Nylon - 4% Elasthan | Color: Khaki - Navy - Charcoal Sizes: One size</t>
+  </si>
+  <si>
+    <t>70% Acrylic - 30% Nylon | Color: Black - Red - Navy - Blue Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Black - Red - Navy - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Charcoal - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Black - Charcoal - Khaki - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Khaki - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Grey - Khaki - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>80% Lambswool - 20% Nylon | Color: Navy - Green - Rust Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Black - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>50% Acrylic - 45% Nylon - 5% Wool | Color: Beige - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Beige - Mustard - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Navy - Black - Mustard - Khaki - Blue Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Black Sizes: One size - Gloves : One size Neckband/Tour de cou (В±25x35cm)</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Beige - Black - Charcoal Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Denim - Navy - Black -Offwhite - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Denim - Navy - Black -Offwhite - Grey Sizes: One size (160x25cm)</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Mustard - Denim - Offwhite - Black - Pink - Grey - Burgundy Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Mustard - Denim - Offwhite - Black - Pink - Grey - Burgundy Sizes: One size (180x35cm)</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Acrylic | Color: Black - Beige - White - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Mustard - Purple - Blue - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Offwhite - Grey - Black - Taupe Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: White - Black - Grey - Mustard Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Green - Putty - Grey - Offwhite - Purple - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>67% Acrylic - 27% Nylon - 3% Spandex - 3% Polyester | Color: Blue - Offwhite Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Black - Beige - Pink - Blue Sizes: One size</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Acrylic | Color: Beige - Taupe - Blue - Raspberry - White - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Acrylic | Color: Black - Beige - Grey - Offwhite Sizes: One size</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Acrylic | Color: Beige - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>80% Recycled Polyester RecyclГ© 20% Wool/Laine | Color: Pink - Cream - Pearl - Rust - Khaki - Beige - Blue - Black Sizes: One size/Taille unique</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Acrylic | Color: Denim - Beige - Grey - Taupe - Navy - Offwhite - Black - Pearl - Pink Sizes: One size</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Acrylic | Color: Denim - Beige - Grey - Taupe - Navy - Offwhite - Black - Pearl - Pink 10% Cotton - 57% Polyester - 33% Acrylic | Color: Charcoal Sizes: M 9,5 - L 10 - XL 10,5</t>
+  </si>
+  <si>
+    <t>10% Cotton - 57% Polyester - 33% Acrylic | Color: Charcoal Sizes: M 9,5 - L 10 - XL 10,5</t>
+  </si>
+  <si>
+    <t>80% Acrylic - 20% Nylon | Color: Black - Charcoal - Khaki - Navy Sizes: One size (10)</t>
+  </si>
+  <si>
+    <t>70% Acrylic - 30% Nylon | Color: Navy - Grey - Black Sizes: One size (10)</t>
+  </si>
+  <si>
+    <t>100% Leather | Color: Black Sizes: 7 - 7,5 - 8 - 8,5 - 9 - 9,5 - 10 - 10,5</t>
+  </si>
+  <si>
+    <t>80% Wool - 20% Polyamid | Color: Brown - Black Sizes: 7 - 7,5 - 8 - 8,5 - 9 - 9,5 - 10 - 10,5</t>
+  </si>
+  <si>
+    <t>97% Acrylic - 3% Elasthan | Color: Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>80% Wool - 20% Polyamid | Color: Grey Sizes: S 7' - M 7,5' - L 8' - XL 8,5'</t>
+  </si>
+  <si>
+    <t>97% Acrylic - 3% Elasthan | Color: Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>80% Acrylic - 20% Nylon | Color: Grey - Khaki - White - Black Sizes: One size (8,5)</t>
+  </si>
+  <si>
+    <t>80% Acrylic - 20% Nylon | Color: Beige - Black - Mustard - Red Sizes: One size (8,5)</t>
+  </si>
+  <si>
+    <t>80% Acrylic - 20% Nylon | Color: Red - Grey - Mustard - Khaki - Black Sizes: One size (8,5)</t>
+  </si>
+  <si>
+    <t>50% Acrylic - 30% Wool - 20% Nylon | Color: Navy - Grey - Charcoal - Black Sizes: One size (8,5)</t>
   </si>
 </sst>
 </file>
@@ -1120,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4141526D-3319-4923-BDB2-869119E6423E}">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2:D146"/>
     </sheetView>
   </sheetViews>
@@ -1163,7 +1166,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>8</v>
@@ -1176,7 +1179,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>8</v>
@@ -1192,7 +1195,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>8</v>
@@ -1208,7 +1211,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>8</v>
@@ -1221,7 +1224,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>8</v>
@@ -1234,7 +1237,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>8</v>
@@ -1247,7 +1250,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>8</v>
@@ -1260,7 +1263,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>8</v>
@@ -1273,7 +1276,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>8</v>
@@ -1286,7 +1289,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>8</v>
@@ -1299,7 +1302,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>8</v>
@@ -1312,7 +1315,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>8</v>
@@ -1325,7 +1328,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>8</v>
@@ -1338,7 +1341,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>8</v>
@@ -1351,7 +1354,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>8</v>
@@ -1364,7 +1367,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>8</v>
@@ -1377,7 +1380,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>8</v>
@@ -1390,7 +1393,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>8</v>
@@ -1403,7 +1406,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>8</v>
@@ -1416,7 +1419,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>8</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>8</v>
@@ -1442,7 +1445,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>8</v>
@@ -1455,7 +1458,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>8</v>
@@ -1468,7 +1471,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>8</v>
@@ -1481,7 +1484,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>8</v>
@@ -1494,7 +1497,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>8</v>
@@ -1507,7 +1510,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>8</v>
@@ -1520,7 +1523,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>8</v>
@@ -1533,7 +1536,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>8</v>
@@ -1546,7 +1549,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>8</v>
@@ -1559,7 +1562,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>8</v>
@@ -1572,7 +1575,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>8</v>
@@ -1585,7 +1588,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>8</v>
@@ -1598,7 +1601,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>8</v>
@@ -1611,7 +1614,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>8</v>
@@ -1624,7 +1627,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>8</v>
@@ -1637,7 +1640,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>8</v>
@@ -1650,7 +1653,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>8</v>
@@ -1663,7 +1666,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>8</v>
@@ -1676,7 +1679,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>8</v>
@@ -1689,7 +1692,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>8</v>
@@ -1702,7 +1705,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>8</v>
@@ -1715,7 +1718,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>8</v>
@@ -1728,7 +1731,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>8</v>
@@ -1741,7 +1744,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>8</v>
@@ -1754,7 +1757,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>8</v>
@@ -1767,7 +1770,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>8</v>
@@ -1780,7 +1783,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>8</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>8</v>
@@ -1806,7 +1809,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>8</v>
@@ -1819,7 +1822,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>8</v>
@@ -1832,7 +1835,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>8</v>
@@ -1845,7 +1848,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>8</v>
@@ -1858,7 +1861,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>8</v>
@@ -1871,7 +1874,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>8</v>
@@ -1884,7 +1887,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>8</v>
@@ -1897,7 +1900,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>8</v>
@@ -1910,7 +1913,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>8</v>
@@ -1923,7 +1926,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>8</v>
@@ -1936,7 +1939,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" s="17" t="s">
         <v>8</v>
@@ -1949,7 +1952,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62" s="17" t="s">
         <v>8</v>
@@ -1962,7 +1965,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63" s="17" t="s">
         <v>8</v>
@@ -1975,7 +1978,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B64" s="17" t="s">
         <v>8</v>
@@ -1988,7 +1991,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B65" s="17" t="s">
         <v>8</v>
@@ -2001,7 +2004,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B66" s="17" t="s">
         <v>8</v>
@@ -2014,7 +2017,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B67" s="17" t="s">
         <v>8</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B68" s="17" t="s">
         <v>8</v>
@@ -2040,7 +2043,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B69" s="17" t="s">
         <v>8</v>
@@ -2053,7 +2056,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B70" s="17" t="s">
         <v>8</v>
@@ -2066,7 +2069,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B71" s="17" t="s">
         <v>8</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B72" s="17" t="s">
         <v>8</v>
@@ -2092,7 +2095,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B73" s="17" t="s">
         <v>8</v>
@@ -2105,7 +2108,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B74" s="17" t="s">
         <v>8</v>
@@ -2118,7 +2121,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B75" s="17" t="s">
         <v>8</v>
@@ -2131,7 +2134,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B76" s="17" t="s">
         <v>8</v>
@@ -2144,7 +2147,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B77" s="17" t="s">
         <v>8</v>
@@ -2157,7 +2160,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>8</v>
@@ -2170,7 +2173,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B79" s="17" t="s">
         <v>8</v>
@@ -2183,7 +2186,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B80" s="17" t="s">
         <v>8</v>
@@ -2196,7 +2199,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B81" s="17" t="s">
         <v>8</v>
@@ -2209,7 +2212,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B82" s="17" t="s">
         <v>8</v>
@@ -2222,7 +2225,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B83" s="17" t="s">
         <v>8</v>
@@ -2235,7 +2238,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>8</v>
@@ -2248,7 +2251,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B85" s="17" t="s">
         <v>8</v>
@@ -2261,7 +2264,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>8</v>
@@ -2274,7 +2277,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>8</v>
@@ -2287,7 +2290,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B88" s="17" t="s">
         <v>8</v>
@@ -2300,7 +2303,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B89" s="17" t="s">
         <v>8</v>
@@ -2313,7 +2316,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="B90" s="17" t="s">
         <v>8</v>
@@ -2872,7 +2875,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B133" s="17" t="s">
         <v>8</v>
@@ -2880,12 +2883,12 @@
       <c r="C133" s="6"/>
       <c r="D133" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>One size</v>
+        <v>M 9,5 - L 10 - XL 10,5</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B134" s="17" t="s">
         <v>8</v>
@@ -2898,7 +2901,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B135" s="17" t="s">
         <v>8</v>
@@ -2911,7 +2914,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B136" s="17" t="s">
         <v>8</v>
@@ -2924,7 +2927,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B137" s="17" t="s">
         <v>8</v>
@@ -2937,7 +2940,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B138" s="17" t="s">
         <v>8</v>
@@ -2950,7 +2953,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B139" s="17" t="s">
         <v>8</v>
@@ -2963,7 +2966,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B140" s="17" t="s">
         <v>8</v>
@@ -2976,7 +2979,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B141" s="17" t="s">
         <v>8</v>
@@ -2989,7 +2992,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B142" s="17" t="s">
         <v>8</v>
@@ -3002,7 +3005,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B143" s="17" t="s">
         <v>8</v>
@@ -3015,7 +3018,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B144" s="17" t="s">
         <v>8</v>
@@ -3028,7 +3031,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B145" s="17" t="s">
         <v>8</v>
@@ -3041,7 +3044,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B146" s="17" t="s">
         <v>8</v>

--- a/Excel/Reg.xlsx
+++ b/Excel/Reg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9B2C25-F9E8-4C56-8C2B-9AF3996AD007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6266B191-AC65-4D51-8B36-4E27AB37F6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17028C15-A9BE-46B8-AD41-4B1A89B3A6E3}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="138">
   <si>
     <t>Данные</t>
   </si>
@@ -180,9 +180,6 @@
     <t>100% Cotton | Color: Black - Taupe - Blue Sizes: from 53 to 63 (pre-order)</t>
   </si>
   <si>
-    <t>94% Polyester вЂ“ 6% Nylon | Color: Brown - Beige Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
     <t>100% Leather | Color: Brown - Cognac - Black Sizes: from 53 to 63 (pre-order)</t>
   </si>
   <si>
@@ -207,12 +204,6 @@
     <t>100% Wool | Color: Navy - Rust Sizes: One size</t>
   </si>
   <si>
-    <t>98% Cotton вЂ“ 2% Elastane | Color: Charcoal - Navy Sizes: One size</t>
-  </si>
-  <si>
-    <t>98% Cotton вЂ“ 2% Elastane | Color: Navy - Charcoal Sizes: One size</t>
-  </si>
-  <si>
     <t>100% Cotton | Color: Green - Black - Grey - Blue - Tobacco Sizes: 57 - 59</t>
   </si>
   <si>
@@ -462,9 +453,6 @@
     <t>30% Wool - 70% Acrylic | Color: Denim - Beige - Grey - Taupe - Navy - Offwhite - Black - Pearl - Pink Sizes: One size</t>
   </si>
   <si>
-    <t>30% Wool - 70% Acrylic | Color: Denim - Beige - Grey - Taupe - Navy - Offwhite - Black - Pearl - Pink 10% Cotton - 57% Polyester - 33% Acrylic | Color: Charcoal Sizes: M 9,5 - L 10 - XL 10,5</t>
-  </si>
-  <si>
     <t>10% Cotton - 57% Polyester - 33% Acrylic | Color: Charcoal Sizes: M 9,5 - L 10 - XL 10,5</t>
   </si>
   <si>
@@ -499,6 +487,39 @@
   </si>
   <si>
     <t>50% Acrylic - 30% Wool - 20% Nylon | Color: Navy - Grey - Charcoal - Black Sizes: One size (8,5)</t>
+  </si>
+  <si>
+    <t>100% Wool | Color: Grey - Blue - Rust - Burgundy Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100% Wool | Color: Taupe - Charcoal Sizes: from 53 to 63 (pre-order) </t>
+  </si>
+  <si>
+    <t>94% Polyester - 6% Nylon | Color: Brown - Beige Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>98% Cotton - 2% Elastane | Color: Charcoal - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>98% Cotton - 2% Elastane | Color: Navy - Charcoal Sizes: One size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94% Polyester - 6% Nylon | Color: Beige - Brown Sizes: from 53 to 63 (pre-order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15% Wool - 50% Polyester - 35% Viscose | Color: Black - Charcoal - Grey Sizes: One size </t>
+  </si>
+  <si>
+    <t>100% Polyester | Color: Black - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Polyester | Color: Navy - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Navy - Black - Camel - Grey - Rust Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94% Polyester - 6% Nylon | Color: Brown - Beige Sizes: from 53 to 63 (pre-order) </t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1145,7 @@
   <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2:D146"/>
     </sheetView>
   </sheetViews>
@@ -1133,7 +1154,7 @@
     <col min="1" max="1" width="135.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="123" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" customWidth="1"/>
     <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1263,7 +1284,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>8</v>
@@ -1276,7 +1297,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>8</v>
@@ -1406,7 +1427,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>8</v>
@@ -1419,7 +1440,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>8</v>
@@ -1432,7 +1453,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>8</v>
@@ -1445,7 +1466,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>8</v>
@@ -1458,7 +1479,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>8</v>
@@ -1471,7 +1492,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>8</v>
@@ -1484,7 +1505,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>8</v>
@@ -1497,7 +1518,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>8</v>
@@ -1510,7 +1531,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>8</v>
@@ -1523,7 +1544,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>8</v>
@@ -1536,7 +1557,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>8</v>
@@ -1549,7 +1570,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>8</v>
@@ -1562,7 +1583,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>8</v>
@@ -1575,7 +1596,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>8</v>
@@ -1588,7 +1609,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>8</v>
@@ -1601,7 +1622,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>8</v>
@@ -1614,7 +1635,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>8</v>
@@ -1627,7 +1648,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>8</v>
@@ -1640,7 +1661,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>8</v>
@@ -1648,12 +1669,12 @@
       <c r="C38" s="6"/>
       <c r="D38" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>One size</v>
+        <v>from 53 to 63 (pre-order)</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>8</v>
@@ -1666,7 +1687,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>8</v>
@@ -1679,7 +1700,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>8</v>
@@ -1692,7 +1713,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>8</v>
@@ -1705,7 +1726,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>8</v>
@@ -1718,7 +1739,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>8</v>
@@ -1731,7 +1752,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>8</v>
@@ -1744,7 +1765,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>8</v>
@@ -1757,7 +1778,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>8</v>
@@ -1770,7 +1791,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>8</v>
@@ -1783,7 +1804,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>8</v>
@@ -1796,7 +1817,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>8</v>
@@ -1809,7 +1830,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>8</v>
@@ -1822,7 +1843,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>8</v>
@@ -1835,7 +1856,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>8</v>
@@ -1848,7 +1869,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>8</v>
@@ -1861,7 +1882,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>8</v>
@@ -1874,7 +1895,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>8</v>
@@ -1887,7 +1908,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>8</v>
@@ -1900,7 +1921,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>8</v>
@@ -1913,7 +1934,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>8</v>
@@ -1921,12 +1942,12 @@
       <c r="C59" s="6"/>
       <c r="D59" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>S - M - L - XL</v>
+        <v>55 - 57 - 59 - 61</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>8</v>
@@ -1939,7 +1960,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B61" s="17" t="s">
         <v>8</v>
@@ -1952,7 +1973,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B62" s="17" t="s">
         <v>8</v>
@@ -1965,7 +1986,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B63" s="17" t="s">
         <v>8</v>
@@ -1978,7 +1999,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B64" s="17" t="s">
         <v>8</v>
@@ -1991,7 +2012,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B65" s="17" t="s">
         <v>8</v>
@@ -2004,7 +2025,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B66" s="17" t="s">
         <v>8</v>
@@ -2017,7 +2038,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B67" s="17" t="s">
         <v>8</v>
@@ -2030,7 +2051,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B68" s="17" t="s">
         <v>8</v>
@@ -2043,7 +2064,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B69" s="17" t="s">
         <v>8</v>
@@ -2056,7 +2077,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B70" s="17" t="s">
         <v>8</v>
@@ -2069,7 +2090,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B71" s="17" t="s">
         <v>8</v>
@@ -2082,7 +2103,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B72" s="17" t="s">
         <v>8</v>
@@ -2095,7 +2116,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B73" s="17" t="s">
         <v>8</v>
@@ -2108,7 +2129,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B74" s="17" t="s">
         <v>8</v>
@@ -2121,7 +2142,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B75" s="17" t="s">
         <v>8</v>
@@ -2134,7 +2155,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B76" s="17" t="s">
         <v>8</v>
@@ -2147,7 +2168,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B77" s="17" t="s">
         <v>8</v>
@@ -2160,7 +2181,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>8</v>
@@ -2173,7 +2194,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B79" s="17" t="s">
         <v>8</v>
@@ -2186,7 +2207,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B80" s="17" t="s">
         <v>8</v>
@@ -2199,7 +2220,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B81" s="17" t="s">
         <v>8</v>
@@ -2212,7 +2233,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B82" s="17" t="s">
         <v>8</v>
@@ -2225,7 +2246,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B83" s="17" t="s">
         <v>8</v>
@@ -2238,7 +2259,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>8</v>
@@ -2251,7 +2272,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B85" s="17" t="s">
         <v>8</v>
@@ -2264,7 +2285,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>8</v>
@@ -2277,7 +2298,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>8</v>
@@ -2290,7 +2311,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B88" s="17" t="s">
         <v>8</v>
@@ -2303,7 +2324,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B89" s="17" t="s">
         <v>8</v>
@@ -2329,7 +2350,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B91" s="17" t="s">
         <v>8</v>
@@ -2342,7 +2363,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B92" s="17" t="s">
         <v>8</v>
@@ -2355,7 +2376,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B93" s="17" t="s">
         <v>8</v>
@@ -2368,7 +2389,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B94" s="17" t="s">
         <v>8</v>
@@ -2381,7 +2402,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B95" s="17" t="s">
         <v>8</v>
@@ -2394,7 +2415,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B96" s="17" t="s">
         <v>8</v>
@@ -2407,7 +2428,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B97" s="17" t="s">
         <v>8</v>
@@ -2420,7 +2441,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B98" s="17" t="s">
         <v>8</v>
@@ -2433,7 +2454,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B99" s="17" t="s">
         <v>8</v>
@@ -2446,7 +2467,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B100" s="17" t="s">
         <v>8</v>
@@ -2459,7 +2480,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B101" s="17" t="s">
         <v>8</v>
@@ -2472,7 +2493,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B102" s="17" t="s">
         <v>8</v>
@@ -2485,7 +2506,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B103" s="17" t="s">
         <v>8</v>
@@ -2498,7 +2519,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B104" s="17" t="s">
         <v>8</v>
@@ -2511,7 +2532,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B105" s="17" t="s">
         <v>8</v>
@@ -2524,7 +2545,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B106" s="17" t="s">
         <v>8</v>
@@ -2537,7 +2558,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B107" s="17" t="s">
         <v>8</v>
@@ -2550,7 +2571,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B108" s="17" t="s">
         <v>8</v>
@@ -2563,7 +2584,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B109" s="17" t="s">
         <v>8</v>
@@ -2576,7 +2597,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B110" s="17" t="s">
         <v>8</v>
@@ -2589,7 +2610,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B111" s="17" t="s">
         <v>8</v>
@@ -2602,7 +2623,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B112" s="17" t="s">
         <v>8</v>
@@ -2615,7 +2636,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B113" s="17" t="s">
         <v>8</v>
@@ -2628,7 +2649,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B114" s="17" t="s">
         <v>8</v>
@@ -2641,7 +2662,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B115" s="17" t="s">
         <v>8</v>
@@ -2654,7 +2675,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B116" s="17" t="s">
         <v>8</v>
@@ -2667,7 +2688,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B117" s="17" t="s">
         <v>8</v>
@@ -2680,7 +2701,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B118" s="17" t="s">
         <v>8</v>
@@ -2693,7 +2714,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B119" s="17" t="s">
         <v>8</v>
@@ -2706,7 +2727,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B120" s="17" t="s">
         <v>8</v>
@@ -2719,7 +2740,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B121" s="17" t="s">
         <v>8</v>
@@ -2732,7 +2753,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B122" s="17" t="s">
         <v>8</v>
@@ -2745,7 +2766,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B123" s="17" t="s">
         <v>8</v>
@@ -2758,7 +2779,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B124" s="17" t="s">
         <v>8</v>
@@ -2771,7 +2792,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B125" s="17" t="s">
         <v>8</v>
@@ -2784,7 +2805,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B126" s="17" t="s">
         <v>8</v>
@@ -2797,7 +2818,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B127" s="17" t="s">
         <v>8</v>
@@ -2810,7 +2831,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B128" s="17" t="s">
         <v>8</v>
@@ -2823,7 +2844,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B129" s="17" t="s">
         <v>8</v>
@@ -2836,7 +2857,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B130" s="17" t="s">
         <v>8</v>
@@ -2849,7 +2870,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B131" s="17" t="s">
         <v>8</v>
@@ -2862,7 +2883,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B132" s="17" t="s">
         <v>8</v>
@@ -2875,7 +2896,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B133" s="17" t="s">
         <v>8</v>
@@ -2883,12 +2904,12 @@
       <c r="C133" s="6"/>
       <c r="D133" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>M 9,5 - L 10 - XL 10,5</v>
+        <v>One size</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B134" s="17" t="s">
         <v>8</v>
@@ -2901,7 +2922,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B135" s="17" t="s">
         <v>8</v>
@@ -2914,7 +2935,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B136" s="17" t="s">
         <v>8</v>
@@ -2927,7 +2948,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B137" s="17" t="s">
         <v>8</v>
@@ -2940,7 +2961,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B138" s="17" t="s">
         <v>8</v>
@@ -2953,7 +2974,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B139" s="17" t="s">
         <v>8</v>
@@ -2966,7 +2987,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B140" s="17" t="s">
         <v>8</v>
@@ -2979,7 +3000,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B141" s="17" t="s">
         <v>8</v>
@@ -2992,7 +3013,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B142" s="17" t="s">
         <v>8</v>
@@ -3005,7 +3026,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B143" s="17" t="s">
         <v>8</v>
@@ -3018,7 +3039,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B144" s="17" t="s">
         <v>8</v>
@@ -3031,7 +3052,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B145" s="17" t="s">
         <v>8</v>
@@ -3044,7 +3065,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B146" s="17" t="s">
         <v>8</v>

--- a/Excel/Reg.xlsx
+++ b/Excel/Reg.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6266B191-AC65-4D51-8B36-4E27AB37F6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5F8296-A63E-46B8-99DF-EDDBD17ADC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17028C15-A9BE-46B8-AD41-4B1A89B3A6E3}"/>
+    <workbookView minimized="1" xWindow="-2535" yWindow="2145" windowWidth="7500" windowHeight="11385" xr2:uid="{17028C15-A9BE-46B8-AD41-4B1A89B3A6E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="44">
   <si>
     <t>Данные</t>
   </si>
@@ -132,394 +132,112 @@
     <t>ECCEL&lt;2021 =ЕСЛИ(ИЛИ($B2&lt;&gt;"";$C2&lt;&gt;"");ЕСЛИОШИБКА(СЖПРОБЕЛЫ(ПСТР($A2;ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="-";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))));ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($C2);$C2)="";ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+1+ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))));НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($C2);$C2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2);ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="-";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))))+1))-ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="-";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))))+ЕСЛИ(НЕ(НЕ($G$1));ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($C2);$C2));0)));"Не найдено");"")</t>
   </si>
   <si>
-    <t>Sizes:</t>
-  </si>
-  <si>
-    <t>90% Nylon - 10% Polyester | Color: Light Blue - White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes: One Size</t>
-  </si>
-  <si>
-    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Color: Blue - Burgundy - Brown - Green Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Color: Green - Blue - Burgundy - Taupe Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Color: Green - Brown - Burgundy - Blue Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>80% Wool - 20% Polyamid | Color: Charcoal - Taupe - Navy - Brown - Black Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>50% Wool - 30% Polyester - 10% Silk - 10% Acrylic | Color: Black - Burgundy - Green - Navy Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Virgin Wool | Color: Green - Brown Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>30% Wool - 70% Polyester | Color: Beige - Grey Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Virgin Wool | Color: Type Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Virgin Wool | Color: Blue - Brown Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Virgin Wool | Color: Charcoal - Navy Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Cotton | Color: Black - Navy - Taupe Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>80% Wool - 20% Polyamid | Color: Blue - Patchwork - Black Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>50% Wool - 50% Polyester | Color: Blue - Brown Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Cotton | Color: Black - Taupe - Blue Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Leather | Color: Brown - Cognac - Black Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Leather | Color: Cognac - Brown - Black Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Leather | Color: Washed Black - Washed Brown Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Leather | Color: Washed Brown - Washed Black Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Leather | Color: Cognac-Black - Brown Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Leather | Color: Cognac - Brown - Charcoal - Black Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Wool | Color: Rust - Navy Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Wool | Color: Navy - Rust Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Cotton | Color: Green - Black - Grey - Blue - Tobacco Sizes: 57 - 59</t>
-  </si>
-  <si>
-    <t>15% Wool - 50% Polyester - 35% Viscose | Color: Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Cotton | Color: Beige - Mustard - Old pink - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>70% Wool - 30% Polyamid | Color: Charcoal - Beige - Brown - Blue Sizes: One size</t>
-  </si>
-  <si>
-    <t>10% Cotton - 57% Polyester - 33% Acrylic | Color: Green - Charcoal - Blue Sizes: M 9,5' - L 10' - XL 10,5'</t>
-  </si>
-  <si>
-    <t>10% Cotton - 57% Polyester - 33% Acrylic | Color: Green - Blue - Charcoal Sizes: One Size</t>
-  </si>
-  <si>
-    <t>100% Corduroy Cotton | Color: Black - Navy Sizes: T.U. - One size</t>
-  </si>
-  <si>
-    <t>100% Cotton | Color: Navy - Black Sizes: T.U. - One size</t>
-  </si>
-  <si>
-    <t>50% Wool - 50% Polyester | Color: Navy Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>50% Wool - 50% Polyester | Color: red - Navy - Black - Grey Sizes: T.U. - One size</t>
-  </si>
-  <si>
-    <t>61% Cotton - 36% Polyester - 3%PU | Color: Navy - Black - Brown Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>60% Cotton - 40% Polyester | Color: Washed Brown (Non-waterproof) Color: Brown - Charcoal (Waterproof) Sizes: 57 - 59</t>
-  </si>
-  <si>
-    <t>61% Cotton - 36% Polyester - 3%PU | Color: Navy - Brown - Black Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Cotton | Color: Mustard - Black - Old pink - Beige Sizes: M - L</t>
-  </si>
-  <si>
-    <t>100% Buffalo Leather | Color: Black - Brown Sizes: 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t>60% Cotton - 40% Polyester | Color: Brown - Charcoal (Waterproof) Color: Washed Brown (Non-waterproof) Sizes: 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t>45% Cotton - 55% Polyester | Color: Brown - Charcoal (Waterproof) Color: Washed Brown (Non-waterproof) Sizes: 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t>60% Cotton - 40% Polyester | Color: Charcoal - Brown (Waterproof) Color: Washed Brown (Non-waterproof) Sizes: 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t>100% Polyester | Color: Black - Brown Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Color: Grey - Charcoal - Green - Brown Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Color: Brown - Black Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Color: Green - Navy - Black Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Color: Charcoal - Pink - Grey - Blue - Mustard - Beige Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Color: Black - Charcoal - Brown Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Color: Navy - Green - Brown - Black - Camel Sizes: 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Color: Black - Camel Sizes: 57 - 59</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Color: Black - Brown - Navy Sizes: 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Color: Charcoal - Green - Brown - Red - Navy - Camel - Black Sizes: 56 - 58</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Color: Grey - Beige - Navy - Pink - Green - Rust Sizes: 55 - 57 - 59</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Color: Navy - Pink - Rust - Red - Green - Grey - Beige Sizes: 57</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Color: Beige - Grey - Rust - Red - Navy - Pink - Green Sizes: 55 - 57 - 59</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Color: Grey - Navy - Green - Rust - Red - Beige - Pink Sizes: 57</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Color: Black Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Color: Black Sizes: M - L</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Color: Black - Navy - Burgundy - Green Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Beige - Pink - Black - Grey Sizes: 53 - 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Beige - Black - Pink - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Polyester | Color: White - Beige - Black Sizes: One size (57)</t>
-  </si>
-  <si>
-    <t>100% Polyester | Color: White - Beige - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>98% Recycled Polyester - 2% Spandex | Color: Beige - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Blue - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Polyester | Color: Black - Brown - Charcoal Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Red Sizes: S - M - L - XL</t>
-  </si>
-  <si>
-    <t>72% Acrylic - 25% Nylon - 4% Elasthan | Color: Beige - Grey - Purple - Pink Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Purple - Pink - Blue Sizes: One size</t>
-  </si>
-  <si>
-    <t>67% Acrylic - 29% Nylon - 4% Elasthan | Color: Grey - Black - Rust Sizes: One size</t>
-  </si>
-  <si>
-    <t>52% Acrylic - 28% Nylon - 28% Polyester | Color: Black - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>67% Acrylic - 29% Nylon - 4% Elasthan | Color: Beige - White - Blue - Grey - Pink - Black - Green Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Beige - Black - Purple Sizes: One size</t>
-  </si>
-  <si>
-    <t>90% Nylon - 10% Polyester | Color: Light Blue -White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>90% Nylon - 10% Polyester | Color: Light Blue - White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Blue - Black - Mustard - Grey - Red Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Beige - Khaki - Offwhite - Black - Brown Sizes: One size</t>
-  </si>
-  <si>
-    <t>72% Acrylic - 25% Nylon - 4% Elasthan | Color: Khaki - Navy - Charcoal Sizes: One size</t>
-  </si>
-  <si>
-    <t>70% Acrylic - 30% Nylon | Color: Black - Red - Navy - Blue Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Black - Red - Navy - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Charcoal - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Black - Charcoal - Khaki - Navy Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Khaki - Navy Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Grey - Khaki - Navy Sizes: One size</t>
-  </si>
-  <si>
-    <t>80% Lambswool - 20% Nylon | Color: Navy - Green - Rust Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Black - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>50% Acrylic - 45% Nylon - 5% Wool | Color: Beige - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Beige - Mustard - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Navy - Black - Mustard - Khaki - Blue Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Black Sizes: One size - Gloves : One size Neckband/Tour de cou (В±25x35cm)</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Beige - Black - Charcoal Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Denim - Navy - Black -Offwhite - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Denim - Navy - Black -Offwhite - Grey Sizes: One size (160x25cm)</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Mustard - Denim - Offwhite - Black - Pink - Grey - Burgundy Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Mustard - Denim - Offwhite - Black - Pink - Grey - Burgundy Sizes: One size (180x35cm)</t>
-  </si>
-  <si>
-    <t>30% Wool - 70% Acrylic | Color: Black - Beige - White - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Mustard - Purple - Blue - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Offwhite - Grey - Black - Taupe Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: White - Black - Grey - Mustard Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Green - Putty - Grey - Offwhite - Purple - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>67% Acrylic - 27% Nylon - 3% Spandex - 3% Polyester | Color: Blue - Offwhite Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Acrylic | Color: Black - Beige - Pink - Blue Sizes: One size</t>
-  </si>
-  <si>
-    <t>30% Wool - 70% Acrylic | Color: Beige - Taupe - Blue - Raspberry - White - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>30% Wool - 70% Acrylic | Color: Black - Beige - Grey - Offwhite Sizes: One size</t>
-  </si>
-  <si>
-    <t>30% Wool - 70% Acrylic | Color: Beige - Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>80% Recycled Polyester RecyclГ© 20% Wool/Laine | Color: Pink - Cream - Pearl - Rust - Khaki - Beige - Blue - Black Sizes: One size/Taille unique</t>
-  </si>
-  <si>
-    <t>30% Wool - 70% Acrylic | Color: Denim - Beige - Grey - Taupe - Navy - Offwhite - Black - Pearl - Pink Sizes: One size</t>
-  </si>
-  <si>
-    <t>10% Cotton - 57% Polyester - 33% Acrylic | Color: Charcoal Sizes: M 9,5 - L 10 - XL 10,5</t>
-  </si>
-  <si>
-    <t>80% Acrylic - 20% Nylon | Color: Black - Charcoal - Khaki - Navy Sizes: One size (10)</t>
-  </si>
-  <si>
-    <t>70% Acrylic - 30% Nylon | Color: Navy - Grey - Black Sizes: One size (10)</t>
-  </si>
-  <si>
-    <t>100% Leather | Color: Black Sizes: 7 - 7,5 - 8 - 8,5 - 9 - 9,5 - 10 - 10,5</t>
-  </si>
-  <si>
-    <t>80% Wool - 20% Polyamid | Color: Brown - Black Sizes: 7 - 7,5 - 8 - 8,5 - 9 - 9,5 - 10 - 10,5</t>
-  </si>
-  <si>
-    <t>97% Acrylic - 3% Elasthan | Color: Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>80% Wool - 20% Polyamid | Color: Grey Sizes: S 7' - M 7,5' - L 8' - XL 8,5'</t>
-  </si>
-  <si>
-    <t>97% Acrylic - 3% Elasthan | Color: Grey Sizes: One size</t>
-  </si>
-  <si>
-    <t>80% Acrylic - 20% Nylon | Color: Grey - Khaki - White - Black Sizes: One size (8,5)</t>
-  </si>
-  <si>
-    <t>80% Acrylic - 20% Nylon | Color: Beige - Black - Mustard - Red Sizes: One size (8,5)</t>
-  </si>
-  <si>
-    <t>80% Acrylic - 20% Nylon | Color: Red - Grey - Mustard - Khaki - Black Sizes: One size (8,5)</t>
-  </si>
-  <si>
-    <t>50% Acrylic - 30% Wool - 20% Nylon | Color: Navy - Grey - Charcoal - Black Sizes: One size (8,5)</t>
-  </si>
-  <si>
-    <t>100% Wool | Color: Grey - Blue - Rust - Burgundy Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100% Wool | Color: Taupe - Charcoal Sizes: from 53 to 63 (pre-order) </t>
-  </si>
-  <si>
-    <t>94% Polyester - 6% Nylon | Color: Brown - Beige Sizes: from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>98% Cotton - 2% Elastane | Color: Charcoal - Navy Sizes: One size</t>
-  </si>
-  <si>
-    <t>98% Cotton - 2% Elastane | Color: Navy - Charcoal Sizes: One size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94% Polyester - 6% Nylon | Color: Beige - Brown Sizes: from 53 to 63 (pre-order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15% Wool - 50% Polyester - 35% Viscose | Color: Black - Charcoal - Grey Sizes: One size </t>
-  </si>
-  <si>
-    <t>100% Polyester | Color: Black - Navy Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Polyester | Color: Navy - Black Sizes: One size</t>
-  </si>
-  <si>
-    <t>100% Wool Felt | Color: Navy - Black - Camel - Grey - Rust Sizes: 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94% Polyester - 6% Nylon | Color: Brown - Beige Sizes: from 53 to 63 (pre-order) </t>
+    <t>EDMOND 019</t>
+  </si>
+  <si>
+    <t>EDMOND 115</t>
+  </si>
+  <si>
+    <t>EDMOND 110</t>
+  </si>
+  <si>
+    <t>EDMOND 112</t>
+  </si>
+  <si>
+    <t>EDMOND 118</t>
+  </si>
+  <si>
+    <t>EDMOND 121</t>
+  </si>
+  <si>
+    <t>EDMOND 116</t>
+  </si>
+  <si>
+    <t>EDMOND 117</t>
+  </si>
+  <si>
+    <t>EDMOND 119</t>
+  </si>
+  <si>
+    <t>EDMOND 050</t>
+  </si>
+  <si>
+    <t>EDMOND 088</t>
+  </si>
+  <si>
+    <t>EDMOND 089</t>
+  </si>
+  <si>
+    <t>LOUISE 105</t>
+  </si>
+  <si>
+    <t>LOUISE 106</t>
+  </si>
+  <si>
+    <t>LOUISE 116</t>
+  </si>
+  <si>
+    <t>MAGGY 8621</t>
+  </si>
+  <si>
+    <t>LOUISE 110</t>
+  </si>
+  <si>
+    <t>LOUISE 124</t>
+  </si>
+  <si>
+    <t>LOUISE 102</t>
+  </si>
+  <si>
+    <t>LOUISE 091</t>
+  </si>
+  <si>
+    <t>LOUISE 041</t>
+  </si>
+  <si>
+    <t>LOUISE 132</t>
+  </si>
+  <si>
+    <t>MAGGY 8633</t>
+  </si>
+  <si>
+    <t>MAGGY 8165 BIS</t>
+  </si>
+  <si>
+    <t>MAGGY 8111</t>
+  </si>
+  <si>
+    <t>JUSTIN 8172</t>
+  </si>
+  <si>
+    <t>Pulse 007</t>
+  </si>
+  <si>
+    <t>Pulse 006</t>
+  </si>
+  <si>
+    <t>Pulse 008</t>
+  </si>
+  <si>
+    <t>Pulse 010</t>
+  </si>
+  <si>
+    <t>JUSTIN 8100</t>
+  </si>
+  <si>
+    <t>JUSTIN 8170</t>
+  </si>
+  <si>
+    <t>MAGGY 8601</t>
+  </si>
+  <si>
+    <t>JUSTIN 8600</t>
+  </si>
+  <si>
+    <t>JUSTIN 8634</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1142,11 +860,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4141526D-3319-4923-BDB2-869119E6423E}">
-  <dimension ref="A1:I146"/>
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D146"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D181" sqref="D2:D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1187,28 +906,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" s="7" t="str">
         <f>IF(OR($B2&lt;&gt;"",$C2&lt;&gt;""),IFERROR(TRIM(MID($A2,IF(IF(NOT($I$1),LOWER($B2),$B2)="-",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2)))),IF(IF(NOT($I$1),LOWER($C2),$C2)="",LEN(IF(NOT($I$1),LOWER($A2),$A2))+1+IF(IF(NOT($I$1),LOWER($B2),$B2)="",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2)))),FIND(IF(NOT($I$1),LOWER($C2),$C2),IF(NOT($I$1),LOWER($A2),$A2),IF(IF(NOT($I$1),LOWER($B2),$B2)="-",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2))))+1))-IF(IF(NOT($I$1),LOWER($B2),$B2)="-",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C2),$C2)),0))),"Не найдено"),"")</f>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D3" s="7" t="str">
         <f t="shared" ref="D3:D66" si="0">IF(OR($B3&lt;&gt;"",$C3&lt;&gt;""),IFERROR(TRIM(MID($A3,IF(IF(NOT($I$1),LOWER($B3),$B3)="-",1,FIND(IF(NOT($I$1),LOWER($B3),$B3),IF(NOT($I$1),LOWER($A3),$A3))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B3),$B3)))),IF(IF(NOT($I$1),LOWER($C3),$C3)="",LEN(IF(NOT($I$1),LOWER($A3),$A3))+1+IF(IF(NOT($I$1),LOWER($B3),$B3)="",1,FIND(IF(NOT($I$1),LOWER($B3),$B3),IF(NOT($I$1),LOWER($A3),$A3))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B3),$B3)))),FIND(IF(NOT($I$1),LOWER($C3),$C3),IF(NOT($I$1),LOWER($A3),$A3),IF(IF(NOT($I$1),LOWER($B3),$B3)="-",1,FIND(IF(NOT($I$1),LOWER($B3),$B3),IF(NOT($I$1),LOWER($A3),$A3))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B3),$B3))))+1))-IF(IF(NOT($I$1),LOWER($B3),$B3)="-",1,FIND(IF(NOT($I$1),LOWER($B3),$B3),IF(NOT($I$1),LOWER($A3),$A3))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B3),$B3))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C3),$C3)),0))),"Не найдено"),"")</f>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>6</v>
@@ -1216,15 +935,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -1232,1848 +951,2268 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D7" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>S - M - L - XL</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D19" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D20" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D21" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D22" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D23" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D24" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D25" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D26" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D27" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D28" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D29" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>One size</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D30" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>One size</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D31" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>One size</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D32" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>One size</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D33" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>57 - 59</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D34" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>One size</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D35" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>One size</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D36" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>One size</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D37" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>One size</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D38" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>from 53 to 63 (pre-order)</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D39" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>One size</v>
+        <v>EDMOND</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D40" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>One size</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D41" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>M 9,5' - L 10' - XL 10,5'</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D42" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>One Size</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D43" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>T.U. - One size</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D44" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>T.U. - One size</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D45" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>S - M - L - XL</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D46" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>T.U. - One size</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D47" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>S - M - L - XL</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D48" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>57 - 59</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D49" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>S - M - L - XL</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D50" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>M - L</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D51" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>55 - 57 - 59 - 61</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D52" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>55 - 57 - 59 - 61</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D53" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>55 - 57 - 59 - 61</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D54" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>55 - 57 - 59 - 61</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D55" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>S - M - L - XL</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D56" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>S - M - L - XL</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="B57" s="17"/>
+      <c r="C57" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D57" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>S - M - L - XL</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="B58" s="17"/>
+      <c r="C58" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D58" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>S - M - L - XL</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="B59" s="17"/>
+      <c r="C59" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D59" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>55 - 57 - 59 - 61</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D60" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>S - M - L - XL</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="B61" s="17"/>
+      <c r="C61" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D61" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>S - M - L - XL</v>
+        <v>MAGGY</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="C62" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D62" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>55 - 57 - 59 - 61</v>
+        <v>MAGGY</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="B63" s="17"/>
+      <c r="C63" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D63" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>57 - 59</v>
+        <v>MAGGY</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="B64" s="17"/>
+      <c r="C64" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D64" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>55 - 57 - 59 - 61</v>
+        <v>MAGGY</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="B65" s="17"/>
+      <c r="C65" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D65" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>56 - 58</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="C66" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D66" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>55 - 57 - 59</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="B67" s="17"/>
+      <c r="C67" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D67" s="7" t="str">
         <f t="shared" ref="D67:D130" si="1">IF(OR($B67&lt;&gt;"",$C67&lt;&gt;""),IFERROR(TRIM(MID($A67,IF(IF(NOT($I$1),LOWER($B67),$B67)="-",1,FIND(IF(NOT($I$1),LOWER($B67),$B67),IF(NOT($I$1),LOWER($A67),$A67))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B67),$B67)))),IF(IF(NOT($I$1),LOWER($C67),$C67)="",LEN(IF(NOT($I$1),LOWER($A67),$A67))+1+IF(IF(NOT($I$1),LOWER($B67),$B67)="",1,FIND(IF(NOT($I$1),LOWER($B67),$B67),IF(NOT($I$1),LOWER($A67),$A67))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B67),$B67)))),FIND(IF(NOT($I$1),LOWER($C67),$C67),IF(NOT($I$1),LOWER($A67),$A67),IF(IF(NOT($I$1),LOWER($B67),$B67)="-",1,FIND(IF(NOT($I$1),LOWER($B67),$B67),IF(NOT($I$1),LOWER($A67),$A67))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B67),$B67))))+1))-IF(IF(NOT($I$1),LOWER($B67),$B67)="-",1,FIND(IF(NOT($I$1),LOWER($B67),$B67),IF(NOT($I$1),LOWER($A67),$A67))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B67),$B67))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C67),$C67)),0))),"Не найдено"),"")</f>
-        <v>57</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="B68" s="17"/>
+      <c r="C68" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D68" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>55 - 57 - 59</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="B69" s="17"/>
+      <c r="C69" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D69" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="B70" s="17"/>
+      <c r="C70" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D70" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>S - M - L - XL</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="B71" s="17"/>
+      <c r="C71" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D71" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>M - L</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="B72" s="17"/>
+      <c r="C72" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D72" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>S - M - L - XL</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B73" s="17"/>
+      <c r="C73" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D73" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>S - M - L - XL</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B74" s="17"/>
+      <c r="C74" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D74" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>S - M - L - XL</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B75" s="17"/>
+      <c r="C75" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D75" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>S - M - L - XL</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B76" s="17"/>
+      <c r="C76" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D76" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>53 - 55 - 57 - 59 - 61</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D77" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="B78" s="17"/>
+      <c r="C78" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D78" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size (57)</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D79" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D80" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="B81" s="17"/>
+      <c r="C81" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D81" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="B82" s="17"/>
+      <c r="C82" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D82" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>S - M - L - XL</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="B83" s="17"/>
+      <c r="C83" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D83" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>S - M - L - XL</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="B84" s="17"/>
+      <c r="C84" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D84" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="B85" s="17"/>
+      <c r="C85" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D85" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="B86" s="17"/>
+      <c r="C86" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D86" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="B87" s="17"/>
+      <c r="C87" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D87" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="B88" s="17"/>
+      <c r="C88" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D88" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>LOUISE</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="B89" s="17"/>
+      <c r="C89" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D89" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>MAGGY</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="B90" s="17"/>
+      <c r="C90" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D90" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One Size</v>
+        <v>MAGGY</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="B91" s="17"/>
+      <c r="C91" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D91" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>MAGGY</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="B92" s="17"/>
+      <c r="C92" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D92" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>MAGGY</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B93" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="B93" s="17"/>
+      <c r="C93" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D93" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>MAGGY</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="B94" s="17"/>
+      <c r="C94" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D94" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>MAGGY</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="B95" s="17"/>
+      <c r="C95" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D95" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>MAGGY</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="B96" s="17"/>
+      <c r="C96" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D96" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>MAGGY</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="B97" s="17"/>
+      <c r="C97" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D97" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>MAGGY</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B98" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="B98" s="17"/>
+      <c r="C98" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D98" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>MAGGY</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B99" s="17"/>
+      <c r="C99" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D99" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>MAGGY</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B100" s="17"/>
+      <c r="C100" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D100" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>MAGGY</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B101" s="17"/>
+      <c r="C101" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D101" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>MAGGY</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B102" s="17"/>
+      <c r="C102" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D102" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>MAGGY</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="B103" s="17"/>
+      <c r="C103" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D103" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>JUSTIN</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="B104" s="17"/>
+      <c r="C104" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D104" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>JUSTIN</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B105" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="B105" s="17"/>
+      <c r="C105" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D105" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="B106" s="17"/>
+      <c r="C106" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D106" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="B107" s="17"/>
+      <c r="C107" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D107" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size - Gloves : One size Neckband/Tour de cou (В±25x35cm)</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="B108" s="17"/>
+      <c r="C108" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D108" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="B109" s="17"/>
+      <c r="C109" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D109" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B110" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="B110" s="17"/>
+      <c r="C110" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D110" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size (160x25cm)</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B111" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="B111" s="17"/>
+      <c r="C111" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D111" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B112" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="B112" s="17"/>
+      <c r="C112" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D112" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size (180x35cm)</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B113" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="B113" s="17"/>
+      <c r="C113" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D113" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="B114" s="17"/>
+      <c r="C114" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D114" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B115" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="B115" s="17"/>
+      <c r="C115" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D115" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B116" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="B116" s="17"/>
+      <c r="C116" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D116" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B117" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="B117" s="17"/>
+      <c r="C117" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D117" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B118" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="B118" s="17"/>
+      <c r="C118" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D118" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B119" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="B119" s="17"/>
+      <c r="C119" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D119" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B120" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="B120" s="17"/>
+      <c r="C120" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D120" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B121" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="B121" s="17"/>
+      <c r="C121" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D121" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="B122" s="17"/>
+      <c r="C122" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D122" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B123" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="B123" s="17"/>
+      <c r="C123" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D123" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B124" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="B124" s="17"/>
+      <c r="C124" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D124" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B125" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="B125" s="17"/>
+      <c r="C125" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D125" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size/Taille unique</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B126" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="B126" s="17"/>
+      <c r="C126" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D126" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size/Taille unique</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B127" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="B127" s="17"/>
+      <c r="C127" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D127" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size/Taille unique</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B128" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="B128" s="17"/>
+      <c r="C128" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D128" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size/Taille unique</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B129" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="B129" s="17"/>
+      <c r="C129" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D129" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B130" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="B130" s="17"/>
+      <c r="C130" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D130" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>One size</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B131" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="B131" s="17"/>
+      <c r="C131" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D131" s="7" t="str">
-        <f t="shared" ref="D131:D146" si="2">IF(OR($B131&lt;&gt;"",$C131&lt;&gt;""),IFERROR(TRIM(MID($A131,IF(IF(NOT($I$1),LOWER($B131),$B131)="-",1,FIND(IF(NOT($I$1),LOWER($B131),$B131),IF(NOT($I$1),LOWER($A131),$A131))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B131),$B131)))),IF(IF(NOT($I$1),LOWER($C131),$C131)="",LEN(IF(NOT($I$1),LOWER($A131),$A131))+1+IF(IF(NOT($I$1),LOWER($B131),$B131)="",1,FIND(IF(NOT($I$1),LOWER($B131),$B131),IF(NOT($I$1),LOWER($A131),$A131))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B131),$B131)))),FIND(IF(NOT($I$1),LOWER($C131),$C131),IF(NOT($I$1),LOWER($A131),$A131),IF(IF(NOT($I$1),LOWER($B131),$B131)="-",1,FIND(IF(NOT($I$1),LOWER($B131),$B131),IF(NOT($I$1),LOWER($A131),$A131))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B131),$B131))))+1))-IF(IF(NOT($I$1),LOWER($B131),$B131)="-",1,FIND(IF(NOT($I$1),LOWER($B131),$B131),IF(NOT($I$1),LOWER($A131),$A131))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B131),$B131))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C131),$C131)),0))),"Не найдено"),"")</f>
-        <v>One size</v>
+        <f t="shared" ref="D131:D181" si="2">IF(OR($B131&lt;&gt;"",$C131&lt;&gt;""),IFERROR(TRIM(MID($A131,IF(IF(NOT($I$1),LOWER($B131),$B131)="-",1,FIND(IF(NOT($I$1),LOWER($B131),$B131),IF(NOT($I$1),LOWER($A131),$A131))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B131),$B131)))),IF(IF(NOT($I$1),LOWER($C131),$C131)="",LEN(IF(NOT($I$1),LOWER($A131),$A131))+1+IF(IF(NOT($I$1),LOWER($B131),$B131)="",1,FIND(IF(NOT($I$1),LOWER($B131),$B131),IF(NOT($I$1),LOWER($A131),$A131))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B131),$B131)))),FIND(IF(NOT($I$1),LOWER($C131),$C131),IF(NOT($I$1),LOWER($A131),$A131),IF(IF(NOT($I$1),LOWER($B131),$B131)="-",1,FIND(IF(NOT($I$1),LOWER($B131),$B131),IF(NOT($I$1),LOWER($A131),$A131))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B131),$B131))))+1))-IF(IF(NOT($I$1),LOWER($B131),$B131)="-",1,FIND(IF(NOT($I$1),LOWER($B131),$B131),IF(NOT($I$1),LOWER($A131),$A131))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B131),$B131))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C131),$C131)),0))),"Не найдено"),"")</f>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B132" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="B132" s="17"/>
+      <c r="C132" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D132" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>One size</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B133" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="B133" s="17"/>
+      <c r="C133" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D133" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>One size</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B134" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="B134" s="17"/>
+      <c r="C134" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D134" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>M 9,5 - L 10 - XL 10,5</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B135" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="B135" s="17"/>
+      <c r="C135" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D135" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>One size (10)</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B136" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="B136" s="17"/>
+      <c r="C136" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D136" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>One size (10)</v>
+        <v>Pulse</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B137" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="B137" s="17"/>
+      <c r="C137" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D137" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>7 - 7,5 - 8 - 8,5 - 9 - 9,5 - 10 - 10,5</v>
+        <v>JUSTIN</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B138" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="B138" s="17"/>
+      <c r="C138" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D138" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>7 - 7,5 - 8 - 8,5 - 9 - 9,5 - 10 - 10,5</v>
+        <v>JUSTIN</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B139" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="B139" s="17"/>
+      <c r="C139" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D139" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>One size</v>
+        <v>JUSTIN</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B140" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="B140" s="17"/>
+      <c r="C140" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D140" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>S 7' - M 7,5' - L 8' - XL 8,5'</v>
+        <v>JUSTIN</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B141" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="B141" s="17"/>
+      <c r="C141" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D141" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>One size</v>
+        <v>JUSTIN</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B142" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="B142" s="17"/>
+      <c r="C142" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D142" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>One size (8,5)</v>
+        <v>JUSTIN</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B143" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="B143" s="17"/>
+      <c r="C143" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D143" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>One size (8,5)</v>
+        <v>JUSTIN</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B144" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="B144" s="17"/>
+      <c r="C144" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D144" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>One size (8,5)</v>
+        <v>JUSTIN</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B145" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="B145" s="17"/>
+      <c r="C145" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D145" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>One size (8,5)</v>
+        <v>JUSTIN</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B146" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="B146" s="17"/>
+      <c r="C146" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D146" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>One size (8,5)</v>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D147" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D148" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D149" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D150" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D151" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D152" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D153" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D154" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D155" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>MAGGY</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D156" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>MAGGY</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D157" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>MAGGY</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D158" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>MAGGY</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D159" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>MAGGY</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D160" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>MAGGY</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D161" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>MAGGY</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D162" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>MAGGY</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D163" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>MAGGY</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D164" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D165" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D166" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D167" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D168" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D169" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D170" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D171" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D172" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D173" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D174" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D175" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D176" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D177" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D178" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D179" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D180" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D181" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>JUSTIN</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Reg.xlsx
+++ b/Excel/Reg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5F8296-A63E-46B8-99DF-EDDBD17ADC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC3E16A-1FAF-41EA-A3DC-769CCCBEFBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-2535" yWindow="2145" windowWidth="7500" windowHeight="11385" xr2:uid="{17028C15-A9BE-46B8-AD41-4B1A89B3A6E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17028C15-A9BE-46B8-AD41-4B1A89B3A6E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="19">
   <si>
     <t>Данные</t>
   </si>
@@ -132,112 +132,37 @@
     <t>ECCEL&lt;2021 =ЕСЛИ(ИЛИ($B2&lt;&gt;"";$C2&lt;&gt;"");ЕСЛИОШИБКА(СЖПРОБЕЛЫ(ПСТР($A2;ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="-";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))));ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($C2);$C2)="";ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+1+ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))));НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($C2);$C2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2);ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="-";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))))+1))-ЕСЛИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2)="-";1;НАЙТИ(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2);ЕСЛИ(НЕ($I$1);СТРОЧН($A2);$A2))+ЕСЛИ(НЕ(НЕ($G$1));0;ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($B2);$B2))))+ЕСЛИ(НЕ(НЕ($G$1));ДЛСТР(ЕСЛИ(НЕ($I$1);СТРОЧН($C2);$C2));0)));"Не найдено");"")</t>
   </si>
   <si>
-    <t>EDMOND 019</t>
+    <t>серый / серый</t>
   </si>
   <si>
-    <t>EDMOND 115</t>
+    <t>бежевый / черный</t>
   </si>
   <si>
-    <t>EDMOND 110</t>
+    <t>синий / серый</t>
   </si>
   <si>
-    <t>EDMOND 112</t>
+    <t>серый / черный</t>
   </si>
   <si>
-    <t>EDMOND 118</t>
+    <t>бежевый / красный</t>
   </si>
   <si>
-    <t>EDMOND 121</t>
+    <t>синий / синий</t>
   </si>
   <si>
-    <t>EDMOND 116</t>
+    <t>серый / темно-синий</t>
   </si>
   <si>
-    <t>EDMOND 117</t>
+    <t>серый / светло-серый</t>
   </si>
   <si>
-    <t>EDMOND 119</t>
+    <t>синий / черный</t>
   </si>
   <si>
-    <t>EDMOND 050</t>
+    <t>серый / синий</t>
   </si>
   <si>
-    <t>EDMOND 088</t>
-  </si>
-  <si>
-    <t>EDMOND 089</t>
-  </si>
-  <si>
-    <t>LOUISE 105</t>
-  </si>
-  <si>
-    <t>LOUISE 106</t>
-  </si>
-  <si>
-    <t>LOUISE 116</t>
-  </si>
-  <si>
-    <t>MAGGY 8621</t>
-  </si>
-  <si>
-    <t>LOUISE 110</t>
-  </si>
-  <si>
-    <t>LOUISE 124</t>
-  </si>
-  <si>
-    <t>LOUISE 102</t>
-  </si>
-  <si>
-    <t>LOUISE 091</t>
-  </si>
-  <si>
-    <t>LOUISE 041</t>
-  </si>
-  <si>
-    <t>LOUISE 132</t>
-  </si>
-  <si>
-    <t>MAGGY 8633</t>
-  </si>
-  <si>
-    <t>MAGGY 8165 BIS</t>
-  </si>
-  <si>
-    <t>MAGGY 8111</t>
-  </si>
-  <si>
-    <t>JUSTIN 8172</t>
-  </si>
-  <si>
-    <t>Pulse 007</t>
-  </si>
-  <si>
-    <t>Pulse 006</t>
-  </si>
-  <si>
-    <t>Pulse 008</t>
-  </si>
-  <si>
-    <t>Pulse 010</t>
-  </si>
-  <si>
-    <t>JUSTIN 8100</t>
-  </si>
-  <si>
-    <t>JUSTIN 8170</t>
-  </si>
-  <si>
-    <t>MAGGY 8601</t>
-  </si>
-  <si>
-    <t>JUSTIN 8600</t>
-  </si>
-  <si>
-    <t>JUSTIN 8634</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve"> /</t>
   </si>
 </sst>
 </file>
@@ -861,11 +786,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4141526D-3319-4923-BDB2-869119E6423E}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:I657"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D181" sqref="D2:D181"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -910,11 +835,11 @@
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>IF(OR($B2&lt;&gt;"",$C2&lt;&gt;""),IFERROR(TRIM(MID($A2,IF(IF(NOT($I$1),LOWER($B2),$B2)="-",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2)))),IF(IF(NOT($I$1),LOWER($C2),$C2)="",LEN(IF(NOT($I$1),LOWER($A2),$A2))+1+IF(IF(NOT($I$1),LOWER($B2),$B2)="",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2)))),FIND(IF(NOT($I$1),LOWER($C2),$C2),IF(NOT($I$1),LOWER($A2),$A2),IF(IF(NOT($I$1),LOWER($B2),$B2)="-",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2))))+1))-IF(IF(NOT($I$1),LOWER($B2),$B2)="-",1,FIND(IF(NOT($I$1),LOWER($B2),$B2),IF(NOT($I$1),LOWER($A2),$A2))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B2),$B2))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C2),$C2)),0))),"Не найдено"),"")</f>
-        <v>EDMOND</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -923,11 +848,11 @@
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D3" s="7" t="str">
         <f t="shared" ref="D3:D66" si="0">IF(OR($B3&lt;&gt;"",$C3&lt;&gt;""),IFERROR(TRIM(MID($A3,IF(IF(NOT($I$1),LOWER($B3),$B3)="-",1,FIND(IF(NOT($I$1),LOWER($B3),$B3),IF(NOT($I$1),LOWER($A3),$A3))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B3),$B3)))),IF(IF(NOT($I$1),LOWER($C3),$C3)="",LEN(IF(NOT($I$1),LOWER($A3),$A3))+1+IF(IF(NOT($I$1),LOWER($B3),$B3)="",1,FIND(IF(NOT($I$1),LOWER($B3),$B3),IF(NOT($I$1),LOWER($A3),$A3))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B3),$B3)))),FIND(IF(NOT($I$1),LOWER($C3),$C3),IF(NOT($I$1),LOWER($A3),$A3),IF(IF(NOT($I$1),LOWER($B3),$B3)="-",1,FIND(IF(NOT($I$1),LOWER($B3),$B3),IF(NOT($I$1),LOWER($A3),$A3))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B3),$B3))))+1))-IF(IF(NOT($I$1),LOWER($B3),$B3)="-",1,FIND(IF(NOT($I$1),LOWER($B3),$B3),IF(NOT($I$1),LOWER($A3),$A3))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B3),$B3))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C3),$C3)),0))),"Не найдено"),"")</f>
-        <v>EDMOND</v>
+        <v>серый</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>6</v>
@@ -939,11 +864,11 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>серый</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -955,2264 +880,5375 @@
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>бежевый</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>бежевый</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>бежевый</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>бежевый</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>бежевый</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>синий</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>синий</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>синий</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>синий</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D19" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D20" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D21" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D22" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D23" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>бежевый</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D24" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>бежевый</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D25" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>бежевый</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D26" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>бежевый</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D27" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>бежевый</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D28" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>бежевый</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D29" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>синий</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D30" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>синий</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D31" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>синий</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D32" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>синий</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D33" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>синий</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D34" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D35" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D36" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D37" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D38" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D39" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>EDMOND</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D40" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D41" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D42" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D43" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D44" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B45" s="17"/>
       <c r="C45" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D45" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D46" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D47" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D48" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B49" s="17"/>
       <c r="C49" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D49" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B50" s="17"/>
       <c r="C50" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D50" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B51" s="17"/>
       <c r="C51" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D51" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B52" s="17"/>
       <c r="C52" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D52" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B53" s="17"/>
       <c r="C53" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D53" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D54" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B55" s="17"/>
       <c r="C55" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D55" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B56" s="17"/>
       <c r="C56" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D56" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B57" s="17"/>
       <c r="C57" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D57" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B58" s="17"/>
       <c r="C58" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D58" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B59" s="17"/>
       <c r="C59" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D59" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B60" s="17"/>
       <c r="C60" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D60" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B61" s="17"/>
       <c r="C61" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D61" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>MAGGY</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B62" s="17"/>
       <c r="C62" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D62" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>MAGGY</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B63" s="17"/>
       <c r="C63" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D63" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>MAGGY</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B64" s="17"/>
       <c r="C64" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D64" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>MAGGY</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B65" s="17"/>
       <c r="C65" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D65" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B66" s="17"/>
       <c r="C66" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D66" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B67" s="17"/>
       <c r="C67" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D67" s="7" t="str">
         <f t="shared" ref="D67:D130" si="1">IF(OR($B67&lt;&gt;"",$C67&lt;&gt;""),IFERROR(TRIM(MID($A67,IF(IF(NOT($I$1),LOWER($B67),$B67)="-",1,FIND(IF(NOT($I$1),LOWER($B67),$B67),IF(NOT($I$1),LOWER($A67),$A67))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B67),$B67)))),IF(IF(NOT($I$1),LOWER($C67),$C67)="",LEN(IF(NOT($I$1),LOWER($A67),$A67))+1+IF(IF(NOT($I$1),LOWER($B67),$B67)="",1,FIND(IF(NOT($I$1),LOWER($B67),$B67),IF(NOT($I$1),LOWER($A67),$A67))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B67),$B67)))),FIND(IF(NOT($I$1),LOWER($C67),$C67),IF(NOT($I$1),LOWER($A67),$A67),IF(IF(NOT($I$1),LOWER($B67),$B67)="-",1,FIND(IF(NOT($I$1),LOWER($B67),$B67),IF(NOT($I$1),LOWER($A67),$A67))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B67),$B67))))+1))-IF(IF(NOT($I$1),LOWER($B67),$B67)="-",1,FIND(IF(NOT($I$1),LOWER($B67),$B67),IF(NOT($I$1),LOWER($A67),$A67))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B67),$B67))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C67),$C67)),0))),"Не найдено"),"")</f>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B68" s="17"/>
       <c r="C68" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D68" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B69" s="17"/>
       <c r="C69" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D69" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B70" s="17"/>
       <c r="C70" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D70" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B71" s="17"/>
       <c r="C71" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D71" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B72" s="17"/>
       <c r="C72" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D72" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B73" s="17"/>
       <c r="C73" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D73" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>LOUISE</v>
+        <v>синий</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B74" s="17"/>
       <c r="C74" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D74" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>LOUISE</v>
+        <v>синий</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B75" s="17"/>
       <c r="C75" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D75" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>LOUISE</v>
+        <v>синий</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B76" s="17"/>
       <c r="C76" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D76" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>LOUISE</v>
+        <v>синий</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B77" s="17"/>
       <c r="C77" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D77" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B78" s="17"/>
       <c r="C78" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D78" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B79" s="17"/>
       <c r="C79" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D79" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B80" s="17"/>
       <c r="C80" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D80" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B81" s="17"/>
       <c r="C81" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D81" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>LOUISE</v>
+        <v>серый</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="B82" s="17"/>
-      <c r="C82" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C82" s="6"/>
       <c r="D82" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>LOUISE</v>
+        <v/>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="B83" s="17"/>
-      <c r="C83" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C83" s="6"/>
       <c r="D83" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>LOUISE</v>
+        <v/>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="B84" s="17"/>
-      <c r="C84" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C84" s="6"/>
       <c r="D84" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>LOUISE</v>
+        <v/>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="B85" s="17"/>
-      <c r="C85" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C85" s="6"/>
       <c r="D85" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>LOUISE</v>
+        <v/>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="B86" s="17"/>
-      <c r="C86" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C86" s="6"/>
       <c r="D86" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>LOUISE</v>
+        <v/>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="B87" s="17"/>
-      <c r="C87" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C87" s="6"/>
       <c r="D87" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>LOUISE</v>
+        <v/>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="B88" s="17"/>
-      <c r="C88" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C88" s="6"/>
       <c r="D88" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>LOUISE</v>
+        <v/>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="B89" s="17"/>
-      <c r="C89" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C89" s="6"/>
       <c r="D89" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>MAGGY</v>
+        <v/>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="B90" s="17"/>
-      <c r="C90" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C90" s="6"/>
       <c r="D90" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>MAGGY</v>
+        <v/>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="B91" s="17"/>
-      <c r="C91" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C91" s="6"/>
       <c r="D91" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>MAGGY</v>
+        <v/>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="B92" s="17"/>
-      <c r="C92" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C92" s="6"/>
       <c r="D92" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>MAGGY</v>
+        <v/>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="B93" s="17"/>
-      <c r="C93" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C93" s="6"/>
       <c r="D93" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>MAGGY</v>
+        <v/>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="B94" s="17"/>
-      <c r="C94" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C94" s="6"/>
       <c r="D94" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>MAGGY</v>
+        <v/>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="B95" s="17"/>
-      <c r="C95" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C95" s="6"/>
       <c r="D95" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>MAGGY</v>
+        <v/>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="B96" s="17"/>
-      <c r="C96" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C96" s="6"/>
       <c r="D96" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>MAGGY</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="17"/>
-      <c r="C97" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C97" s="6"/>
       <c r="D97" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>MAGGY</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="17"/>
-      <c r="C98" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C98" s="6"/>
       <c r="D98" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>MAGGY</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
-        <v>32</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="17"/>
-      <c r="C99" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C99" s="6"/>
       <c r="D99" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>MAGGY</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
-        <v>32</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="17"/>
-      <c r="C100" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C100" s="6"/>
       <c r="D100" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>MAGGY</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
-        <v>32</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="17"/>
-      <c r="C101" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C101" s="6"/>
       <c r="D101" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>MAGGY</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
-        <v>32</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="17"/>
-      <c r="C102" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C102" s="6"/>
       <c r="D102" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>MAGGY</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="17"/>
-      <c r="C103" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C103" s="6"/>
       <c r="D103" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="17"/>
-      <c r="C104" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C104" s="6"/>
       <c r="D104" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="17"/>
-      <c r="C105" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C105" s="6"/>
       <c r="D105" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="17"/>
-      <c r="C106" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C106" s="6"/>
       <c r="D106" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="17"/>
-      <c r="C107" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C107" s="6"/>
       <c r="D107" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="17"/>
-      <c r="C108" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C108" s="6"/>
       <c r="D108" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="17"/>
-      <c r="C109" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C109" s="6"/>
       <c r="D109" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="17"/>
-      <c r="C110" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C110" s="6"/>
       <c r="D110" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="17"/>
-      <c r="C111" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C111" s="6"/>
       <c r="D111" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="17"/>
-      <c r="C112" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C112" s="6"/>
       <c r="D112" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="17"/>
-      <c r="C113" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C113" s="6"/>
       <c r="D113" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="17"/>
-      <c r="C114" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C114" s="6"/>
       <c r="D114" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="17"/>
-      <c r="C115" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C115" s="6"/>
       <c r="D115" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="17"/>
-      <c r="C116" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C116" s="6"/>
       <c r="D116" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="17"/>
-      <c r="C117" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C117" s="6"/>
       <c r="D117" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="17"/>
-      <c r="C118" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C118" s="6"/>
       <c r="D118" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="17"/>
-      <c r="C119" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C119" s="6"/>
       <c r="D119" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="17"/>
-      <c r="C120" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C120" s="6"/>
       <c r="D120" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="17"/>
-      <c r="C121" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C121" s="6"/>
       <c r="D121" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="17"/>
-      <c r="C122" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C122" s="6"/>
       <c r="D122" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="17"/>
-      <c r="C123" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C123" s="6"/>
       <c r="D123" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="17"/>
-      <c r="C124" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C124" s="6"/>
       <c r="D124" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="17"/>
-      <c r="C125" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C125" s="6"/>
       <c r="D125" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="17"/>
-      <c r="C126" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C126" s="6"/>
       <c r="D126" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="17"/>
-      <c r="C127" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C127" s="6"/>
       <c r="D127" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="17"/>
-      <c r="C128" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C128" s="6"/>
       <c r="D128" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="17"/>
-      <c r="C129" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C129" s="6"/>
       <c r="D129" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="17"/>
-      <c r="C130" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C130" s="6"/>
       <c r="D130" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="17"/>
-      <c r="C131" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C131" s="6"/>
       <c r="D131" s="7" t="str">
-        <f t="shared" ref="D131:D181" si="2">IF(OR($B131&lt;&gt;"",$C131&lt;&gt;""),IFERROR(TRIM(MID($A131,IF(IF(NOT($I$1),LOWER($B131),$B131)="-",1,FIND(IF(NOT($I$1),LOWER($B131),$B131),IF(NOT($I$1),LOWER($A131),$A131))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B131),$B131)))),IF(IF(NOT($I$1),LOWER($C131),$C131)="",LEN(IF(NOT($I$1),LOWER($A131),$A131))+1+IF(IF(NOT($I$1),LOWER($B131),$B131)="",1,FIND(IF(NOT($I$1),LOWER($B131),$B131),IF(NOT($I$1),LOWER($A131),$A131))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B131),$B131)))),FIND(IF(NOT($I$1),LOWER($C131),$C131),IF(NOT($I$1),LOWER($A131),$A131),IF(IF(NOT($I$1),LOWER($B131),$B131)="-",1,FIND(IF(NOT($I$1),LOWER($B131),$B131),IF(NOT($I$1),LOWER($A131),$A131))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B131),$B131))))+1))-IF(IF(NOT($I$1),LOWER($B131),$B131)="-",1,FIND(IF(NOT($I$1),LOWER($B131),$B131),IF(NOT($I$1),LOWER($A131),$A131))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B131),$B131))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C131),$C131)),0))),"Не найдено"),"")</f>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="8" t="s">
-        <v>37</v>
-      </c>
+        <f t="shared" ref="D131:D194" si="2">IF(OR($B131&lt;&gt;"",$C131&lt;&gt;""),IFERROR(TRIM(MID($A131,IF(IF(NOT($I$1),LOWER($B131),$B131)="-",1,FIND(IF(NOT($I$1),LOWER($B131),$B131),IF(NOT($I$1),LOWER($A131),$A131))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B131),$B131)))),IF(IF(NOT($I$1),LOWER($C131),$C131)="",LEN(IF(NOT($I$1),LOWER($A131),$A131))+1+IF(IF(NOT($I$1),LOWER($B131),$B131)="",1,FIND(IF(NOT($I$1),LOWER($B131),$B131),IF(NOT($I$1),LOWER($A131),$A131))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B131),$B131)))),FIND(IF(NOT($I$1),LOWER($C131),$C131),IF(NOT($I$1),LOWER($A131),$A131),IF(IF(NOT($I$1),LOWER($B131),$B131)="-",1,FIND(IF(NOT($I$1),LOWER($B131),$B131),IF(NOT($I$1),LOWER($A131),$A131))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B131),$B131))))+1))-IF(IF(NOT($I$1),LOWER($B131),$B131)="-",1,FIND(IF(NOT($I$1),LOWER($B131),$B131),IF(NOT($I$1),LOWER($A131),$A131))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B131),$B131))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C131),$C131)),0))),"Не найдено"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="17"/>
-      <c r="C132" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C132" s="6"/>
       <c r="D132" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="17"/>
-      <c r="C133" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C133" s="6"/>
       <c r="D133" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="17"/>
-      <c r="C134" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C134" s="6"/>
       <c r="D134" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="17"/>
-      <c r="C135" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C135" s="6"/>
       <c r="D135" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="17"/>
-      <c r="C136" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C136" s="6"/>
       <c r="D136" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Pulse</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="17"/>
-      <c r="C137" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C137" s="6"/>
       <c r="D137" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="17"/>
-      <c r="C138" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C138" s="6"/>
       <c r="D138" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="17"/>
-      <c r="C139" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C139" s="6"/>
       <c r="D139" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" s="17"/>
-      <c r="C140" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C140" s="6"/>
       <c r="D140" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" s="17"/>
-      <c r="C141" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C141" s="6"/>
       <c r="D141" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" s="17"/>
-      <c r="C142" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C142" s="6"/>
       <c r="D142" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" s="17"/>
-      <c r="C143" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C143" s="6"/>
       <c r="D143" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" s="17"/>
-      <c r="C144" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C144" s="6"/>
       <c r="D144" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" s="17"/>
-      <c r="C145" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C145" s="6"/>
       <c r="D145" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
-        <v>39</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" s="17"/>
-      <c r="C146" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C146" s="6"/>
       <c r="D146" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="17"/>
+      <c r="C147" s="6"/>
       <c r="D147" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="17"/>
+      <c r="C148" s="6"/>
       <c r="D148" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" s="17"/>
+      <c r="C149" s="6"/>
       <c r="D149" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="17"/>
+      <c r="C150" s="6"/>
       <c r="D150" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="17"/>
+      <c r="C151" s="6"/>
       <c r="D151" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="17"/>
+      <c r="C152" s="6"/>
       <c r="D152" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153" s="17"/>
+      <c r="C153" s="6"/>
       <c r="D153" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="17"/>
+      <c r="C154" s="6"/>
       <c r="D154" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" s="17"/>
+      <c r="C155" s="6"/>
       <c r="D155" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>MAGGY</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" s="17"/>
+      <c r="C156" s="6"/>
       <c r="D156" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>MAGGY</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" s="17"/>
+      <c r="C157" s="6"/>
       <c r="D157" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>MAGGY</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158" s="17"/>
+      <c r="C158" s="6"/>
       <c r="D158" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>MAGGY</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" s="17"/>
+      <c r="C159" s="6"/>
       <c r="D159" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>MAGGY</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160" s="17"/>
+      <c r="C160" s="6"/>
       <c r="D160" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>MAGGY</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" s="17"/>
+      <c r="C161" s="6"/>
       <c r="D161" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>MAGGY</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" s="17"/>
+      <c r="C162" s="6"/>
       <c r="D162" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>MAGGY</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163" s="17"/>
+      <c r="C163" s="6"/>
       <c r="D163" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>MAGGY</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164" s="17"/>
+      <c r="C164" s="6"/>
       <c r="D164" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" s="17"/>
+      <c r="C165" s="6"/>
       <c r="D165" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166" s="17"/>
+      <c r="C166" s="6"/>
       <c r="D166" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B167" s="17"/>
+      <c r="C167" s="6"/>
       <c r="D167" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B168" s="17"/>
+      <c r="C168" s="6"/>
       <c r="D168" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169" s="17"/>
+      <c r="C169" s="6"/>
       <c r="D169" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170" s="17"/>
+      <c r="C170" s="6"/>
       <c r="D170" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171" s="17"/>
+      <c r="C171" s="6"/>
       <c r="D171" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172" s="17"/>
+      <c r="C172" s="6"/>
       <c r="D172" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173" s="17"/>
+      <c r="C173" s="6"/>
       <c r="D173" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174" s="17"/>
+      <c r="C174" s="6"/>
       <c r="D174" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175" s="17"/>
+      <c r="C175" s="6"/>
       <c r="D175" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176" s="17"/>
+      <c r="C176" s="6"/>
       <c r="D176" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" s="17"/>
+      <c r="C177" s="6"/>
       <c r="D177" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" s="17"/>
+      <c r="C178" s="6"/>
       <c r="D178" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" s="17"/>
+      <c r="C179" s="6"/>
       <c r="D179" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180" s="17"/>
+      <c r="C180" s="6"/>
       <c r="D180" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" s="17"/>
+      <c r="C181" s="6"/>
       <c r="D181" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>JUSTIN</v>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182" s="17"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B183" s="17"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B184" s="17"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185" s="17"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B186" s="17"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187" s="17"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B188" s="17"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B189" s="17"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190" s="17"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191" s="17"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192" s="17"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193" s="17"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" s="17"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195" s="17"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="7" t="str">
+        <f t="shared" ref="D195:D258" si="3">IF(OR($B195&lt;&gt;"",$C195&lt;&gt;""),IFERROR(TRIM(MID($A195,IF(IF(NOT($I$1),LOWER($B195),$B195)="-",1,FIND(IF(NOT($I$1),LOWER($B195),$B195),IF(NOT($I$1),LOWER($A195),$A195))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B195),$B195)))),IF(IF(NOT($I$1),LOWER($C195),$C195)="",LEN(IF(NOT($I$1),LOWER($A195),$A195))+1+IF(IF(NOT($I$1),LOWER($B195),$B195)="",1,FIND(IF(NOT($I$1),LOWER($B195),$B195),IF(NOT($I$1),LOWER($A195),$A195))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B195),$B195)))),FIND(IF(NOT($I$1),LOWER($C195),$C195),IF(NOT($I$1),LOWER($A195),$A195),IF(IF(NOT($I$1),LOWER($B195),$B195)="-",1,FIND(IF(NOT($I$1),LOWER($B195),$B195),IF(NOT($I$1),LOWER($A195),$A195))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B195),$B195))))+1))-IF(IF(NOT($I$1),LOWER($B195),$B195)="-",1,FIND(IF(NOT($I$1),LOWER($B195),$B195),IF(NOT($I$1),LOWER($A195),$A195))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B195),$B195))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C195),$C195)),0))),"Не найдено"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196" s="17"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197" s="17"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198" s="17"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" s="17"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200" s="17"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B201" s="17"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202" s="17"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203" s="17"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B204" s="17"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B205" s="17"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B206" s="17"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B207" s="17"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B208" s="17"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B209" s="17"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B210" s="17"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B211" s="17"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B212" s="17"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B213" s="17"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B214" s="17"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B215" s="17"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B216" s="17"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B217" s="17"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B218" s="17"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B219" s="17"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B220" s="17"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B221" s="17"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B222" s="17"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B223" s="17"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B224" s="17"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B225" s="17"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B226" s="17"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B227" s="17"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B228" s="17"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B229" s="17"/>
+      <c r="C229" s="6"/>
+      <c r="D229" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B230" s="17"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B231" s="17"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B232" s="17"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B233" s="17"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B234" s="17"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B235" s="17"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B236" s="17"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B237" s="17"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B238" s="17"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B239" s="17"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B240" s="17"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B241" s="17"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B242" s="17"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B243" s="17"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B244" s="17"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B245" s="17"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B246" s="17"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B247" s="17"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B248" s="17"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B249" s="17"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B250" s="17"/>
+      <c r="C250" s="6"/>
+      <c r="D250" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B251" s="17"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B252" s="17"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B253" s="17"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B254" s="17"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B255" s="17"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B256" s="17"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B257" s="17"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B258" s="17"/>
+      <c r="C258" s="6"/>
+      <c r="D258" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B259" s="17"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="7" t="str">
+        <f t="shared" ref="D259:D322" si="4">IF(OR($B259&lt;&gt;"",$C259&lt;&gt;""),IFERROR(TRIM(MID($A259,IF(IF(NOT($I$1),LOWER($B259),$B259)="-",1,FIND(IF(NOT($I$1),LOWER($B259),$B259),IF(NOT($I$1),LOWER($A259),$A259))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B259),$B259)))),IF(IF(NOT($I$1),LOWER($C259),$C259)="",LEN(IF(NOT($I$1),LOWER($A259),$A259))+1+IF(IF(NOT($I$1),LOWER($B259),$B259)="",1,FIND(IF(NOT($I$1),LOWER($B259),$B259),IF(NOT($I$1),LOWER($A259),$A259))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B259),$B259)))),FIND(IF(NOT($I$1),LOWER($C259),$C259),IF(NOT($I$1),LOWER($A259),$A259),IF(IF(NOT($I$1),LOWER($B259),$B259)="-",1,FIND(IF(NOT($I$1),LOWER($B259),$B259),IF(NOT($I$1),LOWER($A259),$A259))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B259),$B259))))+1))-IF(IF(NOT($I$1),LOWER($B259),$B259)="-",1,FIND(IF(NOT($I$1),LOWER($B259),$B259),IF(NOT($I$1),LOWER($A259),$A259))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B259),$B259))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C259),$C259)),0))),"Не найдено"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B260" s="17"/>
+      <c r="C260" s="6"/>
+      <c r="D260" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B261" s="17"/>
+      <c r="C261" s="6"/>
+      <c r="D261" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B262" s="17"/>
+      <c r="C262" s="6"/>
+      <c r="D262" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B263" s="17"/>
+      <c r="C263" s="6"/>
+      <c r="D263" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B264" s="17"/>
+      <c r="C264" s="6"/>
+      <c r="D264" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B265" s="17"/>
+      <c r="C265" s="6"/>
+      <c r="D265" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B266" s="17"/>
+      <c r="C266" s="6"/>
+      <c r="D266" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B267" s="17"/>
+      <c r="C267" s="6"/>
+      <c r="D267" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B268" s="17"/>
+      <c r="C268" s="6"/>
+      <c r="D268" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B269" s="17"/>
+      <c r="C269" s="6"/>
+      <c r="D269" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B270" s="17"/>
+      <c r="C270" s="6"/>
+      <c r="D270" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B271" s="17"/>
+      <c r="C271" s="6"/>
+      <c r="D271" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B272" s="17"/>
+      <c r="C272" s="6"/>
+      <c r="D272" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B273" s="17"/>
+      <c r="C273" s="6"/>
+      <c r="D273" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B274" s="17"/>
+      <c r="C274" s="6"/>
+      <c r="D274" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B275" s="17"/>
+      <c r="C275" s="6"/>
+      <c r="D275" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B276" s="17"/>
+      <c r="C276" s="6"/>
+      <c r="D276" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B277" s="17"/>
+      <c r="C277" s="6"/>
+      <c r="D277" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B278" s="17"/>
+      <c r="C278" s="6"/>
+      <c r="D278" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B279" s="17"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B280" s="17"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B281" s="17"/>
+      <c r="C281" s="6"/>
+      <c r="D281" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B282" s="17"/>
+      <c r="C282" s="6"/>
+      <c r="D282" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B283" s="17"/>
+      <c r="C283" s="6"/>
+      <c r="D283" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B284" s="17"/>
+      <c r="C284" s="6"/>
+      <c r="D284" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B285" s="17"/>
+      <c r="C285" s="6"/>
+      <c r="D285" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B286" s="17"/>
+      <c r="C286" s="6"/>
+      <c r="D286" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B287" s="17"/>
+      <c r="C287" s="6"/>
+      <c r="D287" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B288" s="17"/>
+      <c r="C288" s="6"/>
+      <c r="D288" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B289" s="17"/>
+      <c r="C289" s="6"/>
+      <c r="D289" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B290" s="17"/>
+      <c r="C290" s="6"/>
+      <c r="D290" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B291" s="17"/>
+      <c r="C291" s="6"/>
+      <c r="D291" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B292" s="17"/>
+      <c r="C292" s="6"/>
+      <c r="D292" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B293" s="17"/>
+      <c r="C293" s="6"/>
+      <c r="D293" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B294" s="17"/>
+      <c r="C294" s="6"/>
+      <c r="D294" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B295" s="17"/>
+      <c r="C295" s="6"/>
+      <c r="D295" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B296" s="17"/>
+      <c r="C296" s="6"/>
+      <c r="D296" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B297" s="17"/>
+      <c r="C297" s="6"/>
+      <c r="D297" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B298" s="17"/>
+      <c r="C298" s="6"/>
+      <c r="D298" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B299" s="17"/>
+      <c r="C299" s="6"/>
+      <c r="D299" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B300" s="17"/>
+      <c r="C300" s="6"/>
+      <c r="D300" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B301" s="17"/>
+      <c r="C301" s="6"/>
+      <c r="D301" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B302" s="17"/>
+      <c r="C302" s="6"/>
+      <c r="D302" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B303" s="17"/>
+      <c r="C303" s="6"/>
+      <c r="D303" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B304" s="17"/>
+      <c r="C304" s="6"/>
+      <c r="D304" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B305" s="17"/>
+      <c r="C305" s="6"/>
+      <c r="D305" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B306" s="17"/>
+      <c r="C306" s="6"/>
+      <c r="D306" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B307" s="17"/>
+      <c r="C307" s="6"/>
+      <c r="D307" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B308" s="17"/>
+      <c r="C308" s="6"/>
+      <c r="D308" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B309" s="17"/>
+      <c r="C309" s="6"/>
+      <c r="D309" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B310" s="17"/>
+      <c r="C310" s="6"/>
+      <c r="D310" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B311" s="17"/>
+      <c r="C311" s="6"/>
+      <c r="D311" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B312" s="17"/>
+      <c r="C312" s="6"/>
+      <c r="D312" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B313" s="17"/>
+      <c r="C313" s="6"/>
+      <c r="D313" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B314" s="17"/>
+      <c r="C314" s="6"/>
+      <c r="D314" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B315" s="17"/>
+      <c r="C315" s="6"/>
+      <c r="D315" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B316" s="17"/>
+      <c r="C316" s="6"/>
+      <c r="D316" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B317" s="17"/>
+      <c r="C317" s="6"/>
+      <c r="D317" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B318" s="17"/>
+      <c r="C318" s="6"/>
+      <c r="D318" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B319" s="17"/>
+      <c r="C319" s="6"/>
+      <c r="D319" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B320" s="17"/>
+      <c r="C320" s="6"/>
+      <c r="D320" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B321" s="17"/>
+      <c r="C321" s="6"/>
+      <c r="D321" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B322" s="17"/>
+      <c r="C322" s="6"/>
+      <c r="D322" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B323" s="17"/>
+      <c r="C323" s="6"/>
+      <c r="D323" s="7" t="str">
+        <f t="shared" ref="D323:D386" si="5">IF(OR($B323&lt;&gt;"",$C323&lt;&gt;""),IFERROR(TRIM(MID($A323,IF(IF(NOT($I$1),LOWER($B323),$B323)="-",1,FIND(IF(NOT($I$1),LOWER($B323),$B323),IF(NOT($I$1),LOWER($A323),$A323))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B323),$B323)))),IF(IF(NOT($I$1),LOWER($C323),$C323)="",LEN(IF(NOT($I$1),LOWER($A323),$A323))+1+IF(IF(NOT($I$1),LOWER($B323),$B323)="",1,FIND(IF(NOT($I$1),LOWER($B323),$B323),IF(NOT($I$1),LOWER($A323),$A323))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B323),$B323)))),FIND(IF(NOT($I$1),LOWER($C323),$C323),IF(NOT($I$1),LOWER($A323),$A323),IF(IF(NOT($I$1),LOWER($B323),$B323)="-",1,FIND(IF(NOT($I$1),LOWER($B323),$B323),IF(NOT($I$1),LOWER($A323),$A323))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B323),$B323))))+1))-IF(IF(NOT($I$1),LOWER($B323),$B323)="-",1,FIND(IF(NOT($I$1),LOWER($B323),$B323),IF(NOT($I$1),LOWER($A323),$A323))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B323),$B323))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C323),$C323)),0))),"Не найдено"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B324" s="17"/>
+      <c r="C324" s="6"/>
+      <c r="D324" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B325" s="17"/>
+      <c r="C325" s="6"/>
+      <c r="D325" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B326" s="17"/>
+      <c r="C326" s="6"/>
+      <c r="D326" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B327" s="17"/>
+      <c r="C327" s="6"/>
+      <c r="D327" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B328" s="17"/>
+      <c r="C328" s="6"/>
+      <c r="D328" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B329" s="17"/>
+      <c r="C329" s="6"/>
+      <c r="D329" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B330" s="17"/>
+      <c r="C330" s="6"/>
+      <c r="D330" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B331" s="17"/>
+      <c r="C331" s="6"/>
+      <c r="D331" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B332" s="17"/>
+      <c r="C332" s="6"/>
+      <c r="D332" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B333" s="17"/>
+      <c r="C333" s="6"/>
+      <c r="D333" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B334" s="17"/>
+      <c r="C334" s="6"/>
+      <c r="D334" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B335" s="17"/>
+      <c r="C335" s="6"/>
+      <c r="D335" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B336" s="17"/>
+      <c r="C336" s="6"/>
+      <c r="D336" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B337" s="17"/>
+      <c r="C337" s="6"/>
+      <c r="D337" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B338" s="17"/>
+      <c r="C338" s="6"/>
+      <c r="D338" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B339" s="17"/>
+      <c r="C339" s="6"/>
+      <c r="D339" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B340" s="17"/>
+      <c r="C340" s="6"/>
+      <c r="D340" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B341" s="17"/>
+      <c r="C341" s="6"/>
+      <c r="D341" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B342" s="17"/>
+      <c r="C342" s="6"/>
+      <c r="D342" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B343" s="17"/>
+      <c r="C343" s="6"/>
+      <c r="D343" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B344" s="17"/>
+      <c r="C344" s="6"/>
+      <c r="D344" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B345" s="17"/>
+      <c r="C345" s="6"/>
+      <c r="D345" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B346" s="17"/>
+      <c r="C346" s="6"/>
+      <c r="D346" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B347" s="17"/>
+      <c r="C347" s="6"/>
+      <c r="D347" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B348" s="17"/>
+      <c r="C348" s="6"/>
+      <c r="D348" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B349" s="17"/>
+      <c r="C349" s="6"/>
+      <c r="D349" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B350" s="17"/>
+      <c r="C350" s="6"/>
+      <c r="D350" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B351" s="17"/>
+      <c r="C351" s="6"/>
+      <c r="D351" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B352" s="17"/>
+      <c r="C352" s="6"/>
+      <c r="D352" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B353" s="17"/>
+      <c r="C353" s="6"/>
+      <c r="D353" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B354" s="17"/>
+      <c r="C354" s="6"/>
+      <c r="D354" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B355" s="17"/>
+      <c r="C355" s="6"/>
+      <c r="D355" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B356" s="17"/>
+      <c r="C356" s="6"/>
+      <c r="D356" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B357" s="17"/>
+      <c r="C357" s="6"/>
+      <c r="D357" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B358" s="17"/>
+      <c r="C358" s="6"/>
+      <c r="D358" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B359" s="17"/>
+      <c r="C359" s="6"/>
+      <c r="D359" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B360" s="17"/>
+      <c r="C360" s="6"/>
+      <c r="D360" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B361" s="17"/>
+      <c r="C361" s="6"/>
+      <c r="D361" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B362" s="17"/>
+      <c r="C362" s="6"/>
+      <c r="D362" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B363" s="17"/>
+      <c r="C363" s="6"/>
+      <c r="D363" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B364" s="17"/>
+      <c r="C364" s="6"/>
+      <c r="D364" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B365" s="17"/>
+      <c r="C365" s="6"/>
+      <c r="D365" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B366" s="17"/>
+      <c r="C366" s="6"/>
+      <c r="D366" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B367" s="17"/>
+      <c r="C367" s="6"/>
+      <c r="D367" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B368" s="17"/>
+      <c r="C368" s="6"/>
+      <c r="D368" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B369" s="17"/>
+      <c r="C369" s="6"/>
+      <c r="D369" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B370" s="17"/>
+      <c r="C370" s="6"/>
+      <c r="D370" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B371" s="17"/>
+      <c r="C371" s="6"/>
+      <c r="D371" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B372" s="17"/>
+      <c r="C372" s="6"/>
+      <c r="D372" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B373" s="17"/>
+      <c r="C373" s="6"/>
+      <c r="D373" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B374" s="17"/>
+      <c r="C374" s="6"/>
+      <c r="D374" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B375" s="17"/>
+      <c r="C375" s="6"/>
+      <c r="D375" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B376" s="17"/>
+      <c r="C376" s="6"/>
+      <c r="D376" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B377" s="17"/>
+      <c r="C377" s="6"/>
+      <c r="D377" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B378" s="17"/>
+      <c r="C378" s="6"/>
+      <c r="D378" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B379" s="17"/>
+      <c r="C379" s="6"/>
+      <c r="D379" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B380" s="17"/>
+      <c r="C380" s="6"/>
+      <c r="D380" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B381" s="17"/>
+      <c r="C381" s="6"/>
+      <c r="D381" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B382" s="17"/>
+      <c r="C382" s="6"/>
+      <c r="D382" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B383" s="17"/>
+      <c r="C383" s="6"/>
+      <c r="D383" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B384" s="17"/>
+      <c r="C384" s="6"/>
+      <c r="D384" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B385" s="17"/>
+      <c r="C385" s="6"/>
+      <c r="D385" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B386" s="17"/>
+      <c r="C386" s="6"/>
+      <c r="D386" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B387" s="17"/>
+      <c r="C387" s="6"/>
+      <c r="D387" s="7" t="str">
+        <f t="shared" ref="D387:D450" si="6">IF(OR($B387&lt;&gt;"",$C387&lt;&gt;""),IFERROR(TRIM(MID($A387,IF(IF(NOT($I$1),LOWER($B387),$B387)="-",1,FIND(IF(NOT($I$1),LOWER($B387),$B387),IF(NOT($I$1),LOWER($A387),$A387))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B387),$B387)))),IF(IF(NOT($I$1),LOWER($C387),$C387)="",LEN(IF(NOT($I$1),LOWER($A387),$A387))+1+IF(IF(NOT($I$1),LOWER($B387),$B387)="",1,FIND(IF(NOT($I$1),LOWER($B387),$B387),IF(NOT($I$1),LOWER($A387),$A387))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B387),$B387)))),FIND(IF(NOT($I$1),LOWER($C387),$C387),IF(NOT($I$1),LOWER($A387),$A387),IF(IF(NOT($I$1),LOWER($B387),$B387)="-",1,FIND(IF(NOT($I$1),LOWER($B387),$B387),IF(NOT($I$1),LOWER($A387),$A387))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B387),$B387))))+1))-IF(IF(NOT($I$1),LOWER($B387),$B387)="-",1,FIND(IF(NOT($I$1),LOWER($B387),$B387),IF(NOT($I$1),LOWER($A387),$A387))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B387),$B387))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C387),$C387)),0))),"Не найдено"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B388" s="17"/>
+      <c r="C388" s="6"/>
+      <c r="D388" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B389" s="17"/>
+      <c r="C389" s="6"/>
+      <c r="D389" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B390" s="17"/>
+      <c r="C390" s="6"/>
+      <c r="D390" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B391" s="17"/>
+      <c r="C391" s="6"/>
+      <c r="D391" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B392" s="17"/>
+      <c r="C392" s="6"/>
+      <c r="D392" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B393" s="17"/>
+      <c r="C393" s="6"/>
+      <c r="D393" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B394" s="17"/>
+      <c r="C394" s="6"/>
+      <c r="D394" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B395" s="17"/>
+      <c r="C395" s="6"/>
+      <c r="D395" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B396" s="17"/>
+      <c r="C396" s="6"/>
+      <c r="D396" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B397" s="17"/>
+      <c r="C397" s="6"/>
+      <c r="D397" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B398" s="17"/>
+      <c r="C398" s="6"/>
+      <c r="D398" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B399" s="17"/>
+      <c r="C399" s="6"/>
+      <c r="D399" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B400" s="17"/>
+      <c r="C400" s="6"/>
+      <c r="D400" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B401" s="17"/>
+      <c r="C401" s="6"/>
+      <c r="D401" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B402" s="17"/>
+      <c r="C402" s="6"/>
+      <c r="D402" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B403" s="17"/>
+      <c r="C403" s="6"/>
+      <c r="D403" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B404" s="17"/>
+      <c r="C404" s="6"/>
+      <c r="D404" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="405" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B405" s="17"/>
+      <c r="C405" s="6"/>
+      <c r="D405" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="406" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B406" s="17"/>
+      <c r="C406" s="6"/>
+      <c r="D406" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="407" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B407" s="17"/>
+      <c r="C407" s="6"/>
+      <c r="D407" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="408" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B408" s="17"/>
+      <c r="C408" s="6"/>
+      <c r="D408" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="409" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B409" s="17"/>
+      <c r="C409" s="6"/>
+      <c r="D409" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="410" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B410" s="17"/>
+      <c r="C410" s="6"/>
+      <c r="D410" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B411" s="17"/>
+      <c r="C411" s="6"/>
+      <c r="D411" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B412" s="17"/>
+      <c r="C412" s="6"/>
+      <c r="D412" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="413" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B413" s="17"/>
+      <c r="C413" s="6"/>
+      <c r="D413" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="414" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B414" s="17"/>
+      <c r="C414" s="6"/>
+      <c r="D414" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B415" s="17"/>
+      <c r="C415" s="6"/>
+      <c r="D415" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="416" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B416" s="17"/>
+      <c r="C416" s="6"/>
+      <c r="D416" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B417" s="17"/>
+      <c r="C417" s="6"/>
+      <c r="D417" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B418" s="17"/>
+      <c r="C418" s="6"/>
+      <c r="D418" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B419" s="17"/>
+      <c r="C419" s="6"/>
+      <c r="D419" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="420" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B420" s="17"/>
+      <c r="C420" s="6"/>
+      <c r="D420" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B421" s="17"/>
+      <c r="C421" s="6"/>
+      <c r="D421" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B422" s="17"/>
+      <c r="C422" s="6"/>
+      <c r="D422" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B423" s="17"/>
+      <c r="C423" s="6"/>
+      <c r="D423" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B424" s="17"/>
+      <c r="C424" s="6"/>
+      <c r="D424" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B425" s="17"/>
+      <c r="C425" s="6"/>
+      <c r="D425" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B426" s="17"/>
+      <c r="D426" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B427" s="17"/>
+      <c r="D427" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B428" s="17"/>
+      <c r="D428" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B429" s="17"/>
+      <c r="D429" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B430" s="17"/>
+      <c r="D430" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B431" s="17"/>
+      <c r="D431" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B432" s="17"/>
+      <c r="D432" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B433" s="17"/>
+      <c r="D433" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B434" s="17"/>
+      <c r="D434" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="435" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B435" s="17"/>
+      <c r="D435" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B436" s="17"/>
+      <c r="D436" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B437" s="17"/>
+      <c r="D437" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="438" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B438" s="17"/>
+      <c r="D438" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="439" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B439" s="17"/>
+      <c r="D439" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="440" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B440" s="17"/>
+      <c r="D440" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="441" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B441" s="17"/>
+      <c r="D441" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="442" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B442" s="17"/>
+      <c r="D442" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="443" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B443" s="17"/>
+      <c r="D443" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="444" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B444" s="17"/>
+      <c r="D444" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="445" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B445" s="17"/>
+      <c r="D445" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="446" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B446" s="17"/>
+      <c r="D446" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="447" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B447" s="17"/>
+      <c r="D447" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="448" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B448" s="17"/>
+      <c r="D448" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B449" s="17"/>
+      <c r="D449" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B450" s="17"/>
+      <c r="D450" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="451" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B451" s="17"/>
+      <c r="D451" s="7" t="str">
+        <f t="shared" ref="D451:D514" si="7">IF(OR($B451&lt;&gt;"",$C451&lt;&gt;""),IFERROR(TRIM(MID($A451,IF(IF(NOT($I$1),LOWER($B451),$B451)="-",1,FIND(IF(NOT($I$1),LOWER($B451),$B451),IF(NOT($I$1),LOWER($A451),$A451))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B451),$B451)))),IF(IF(NOT($I$1),LOWER($C451),$C451)="",LEN(IF(NOT($I$1),LOWER($A451),$A451))+1+IF(IF(NOT($I$1),LOWER($B451),$B451)="",1,FIND(IF(NOT($I$1),LOWER($B451),$B451),IF(NOT($I$1),LOWER($A451),$A451))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B451),$B451)))),FIND(IF(NOT($I$1),LOWER($C451),$C451),IF(NOT($I$1),LOWER($A451),$A451),IF(IF(NOT($I$1),LOWER($B451),$B451)="-",1,FIND(IF(NOT($I$1),LOWER($B451),$B451),IF(NOT($I$1),LOWER($A451),$A451))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B451),$B451))))+1))-IF(IF(NOT($I$1),LOWER($B451),$B451)="-",1,FIND(IF(NOT($I$1),LOWER($B451),$B451),IF(NOT($I$1),LOWER($A451),$A451))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B451),$B451))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C451),$C451)),0))),"Не найдено"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="452" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B452" s="17"/>
+      <c r="D452" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="453" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B453" s="17"/>
+      <c r="D453" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="454" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B454" s="17"/>
+      <c r="D454" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="455" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B455" s="17"/>
+      <c r="D455" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="456" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B456" s="17"/>
+      <c r="D456" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="457" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B457" s="17"/>
+      <c r="D457" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B458" s="17"/>
+      <c r="D458" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="459" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B459" s="17"/>
+      <c r="D459" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="460" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B460" s="17"/>
+      <c r="D460" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="461" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B461" s="17"/>
+      <c r="D461" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="462" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B462" s="17"/>
+      <c r="D462" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="463" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B463" s="17"/>
+      <c r="D463" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="464" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B464" s="17"/>
+      <c r="D464" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="465" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B465" s="17"/>
+      <c r="D465" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="466" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B466" s="17"/>
+      <c r="D466" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="467" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B467" s="17"/>
+      <c r="D467" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="468" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B468" s="17"/>
+      <c r="D468" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="469" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B469" s="17"/>
+      <c r="D469" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="470" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B470" s="17"/>
+      <c r="D470" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="471" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B471" s="17"/>
+      <c r="D471" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="472" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B472" s="17"/>
+      <c r="D472" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="473" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B473" s="17"/>
+      <c r="D473" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="474" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B474" s="17"/>
+      <c r="D474" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="475" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B475" s="17"/>
+      <c r="D475" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="476" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B476" s="17"/>
+      <c r="D476" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="477" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B477" s="17"/>
+      <c r="D477" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="478" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B478" s="17"/>
+      <c r="D478" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="479" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B479" s="17"/>
+      <c r="D479" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="480" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B480" s="17"/>
+      <c r="D480" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="481" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B481" s="17"/>
+      <c r="D481" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="482" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B482" s="17"/>
+      <c r="D482" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="483" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B483" s="17"/>
+      <c r="D483" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="484" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B484" s="17"/>
+      <c r="D484" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="485" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B485" s="17"/>
+      <c r="D485" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="486" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B486" s="17"/>
+      <c r="D486" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="487" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B487" s="17"/>
+      <c r="D487" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="488" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B488" s="17"/>
+      <c r="D488" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="489" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B489" s="17"/>
+      <c r="D489" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="490" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B490" s="17"/>
+      <c r="D490" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="491" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B491" s="17"/>
+      <c r="D491" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="492" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B492" s="17"/>
+      <c r="D492" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="493" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B493" s="17"/>
+      <c r="D493" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="494" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B494" s="17"/>
+      <c r="D494" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="495" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B495" s="17"/>
+      <c r="D495" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="496" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B496" s="17"/>
+      <c r="D496" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="497" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B497" s="17"/>
+      <c r="D497" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="498" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B498" s="17"/>
+      <c r="D498" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="499" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B499" s="17"/>
+      <c r="D499" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="500" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B500" s="17"/>
+      <c r="D500" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="501" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B501" s="17"/>
+      <c r="D501" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="502" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B502" s="17"/>
+      <c r="D502" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="503" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B503" s="17"/>
+      <c r="D503" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="504" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B504" s="17"/>
+      <c r="D504" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="505" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B505" s="17"/>
+      <c r="D505" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="506" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B506" s="17"/>
+      <c r="D506" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="507" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B507" s="17"/>
+      <c r="D507" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="508" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B508" s="17"/>
+      <c r="D508" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="509" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B509" s="17"/>
+      <c r="D509" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="510" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B510" s="17"/>
+      <c r="D510" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="511" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B511" s="17"/>
+      <c r="D511" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="512" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B512" s="17"/>
+      <c r="D512" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="513" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B513" s="17"/>
+      <c r="D513" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="514" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B514" s="17"/>
+      <c r="D514" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="515" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B515" s="17"/>
+      <c r="D515" s="7" t="str">
+        <f t="shared" ref="D515:D578" si="8">IF(OR($B515&lt;&gt;"",$C515&lt;&gt;""),IFERROR(TRIM(MID($A515,IF(IF(NOT($I$1),LOWER($B515),$B515)="-",1,FIND(IF(NOT($I$1),LOWER($B515),$B515),IF(NOT($I$1),LOWER($A515),$A515))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B515),$B515)))),IF(IF(NOT($I$1),LOWER($C515),$C515)="",LEN(IF(NOT($I$1),LOWER($A515),$A515))+1+IF(IF(NOT($I$1),LOWER($B515),$B515)="",1,FIND(IF(NOT($I$1),LOWER($B515),$B515),IF(NOT($I$1),LOWER($A515),$A515))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B515),$B515)))),FIND(IF(NOT($I$1),LOWER($C515),$C515),IF(NOT($I$1),LOWER($A515),$A515),IF(IF(NOT($I$1),LOWER($B515),$B515)="-",1,FIND(IF(NOT($I$1),LOWER($B515),$B515),IF(NOT($I$1),LOWER($A515),$A515))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B515),$B515))))+1))-IF(IF(NOT($I$1),LOWER($B515),$B515)="-",1,FIND(IF(NOT($I$1),LOWER($B515),$B515),IF(NOT($I$1),LOWER($A515),$A515))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B515),$B515))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C515),$C515)),0))),"Не найдено"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="516" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B516" s="17"/>
+      <c r="D516" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="517" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B517" s="17"/>
+      <c r="D517" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="518" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B518" s="17"/>
+      <c r="D518" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="519" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B519" s="17"/>
+      <c r="D519" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="520" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B520" s="17"/>
+      <c r="D520" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="521" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B521" s="17"/>
+      <c r="D521" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="522" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B522" s="17"/>
+      <c r="D522" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="523" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B523" s="17"/>
+      <c r="D523" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="524" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B524" s="17"/>
+      <c r="D524" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="525" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B525" s="17"/>
+      <c r="D525" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="526" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B526" s="17"/>
+      <c r="D526" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="527" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B527" s="17"/>
+      <c r="D527" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="528" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B528" s="17"/>
+      <c r="D528" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="529" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B529" s="17"/>
+      <c r="D529" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="530" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B530" s="17"/>
+      <c r="D530" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="531" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B531" s="17"/>
+      <c r="D531" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="532" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B532" s="17"/>
+      <c r="D532" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="533" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B533" s="17"/>
+      <c r="D533" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="534" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B534" s="17"/>
+      <c r="D534" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="535" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B535" s="17"/>
+      <c r="D535" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="536" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B536" s="17"/>
+      <c r="D536" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="537" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B537" s="17"/>
+      <c r="D537" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="538" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B538" s="17"/>
+      <c r="D538" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="539" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B539" s="17"/>
+      <c r="D539" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="540" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B540" s="17"/>
+      <c r="D540" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="541" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B541" s="17"/>
+      <c r="D541" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="542" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B542" s="17"/>
+      <c r="D542" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="543" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B543" s="17"/>
+      <c r="D543" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="544" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B544" s="17"/>
+      <c r="D544" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="545" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B545" s="17"/>
+      <c r="D545" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="546" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B546" s="17"/>
+      <c r="D546" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="547" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B547" s="17"/>
+      <c r="D547" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="548" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B548" s="17"/>
+      <c r="D548" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="549" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B549" s="17"/>
+      <c r="D549" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="550" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B550" s="17"/>
+      <c r="D550" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="551" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B551" s="17"/>
+      <c r="D551" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="552" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B552" s="17"/>
+      <c r="D552" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="553" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B553" s="17"/>
+      <c r="D553" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="554" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B554" s="17"/>
+      <c r="D554" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="555" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B555" s="17"/>
+      <c r="D555" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="556" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B556" s="17"/>
+      <c r="D556" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="557" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B557" s="17"/>
+      <c r="D557" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="558" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B558" s="17"/>
+      <c r="D558" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="559" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B559" s="17"/>
+      <c r="D559" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="560" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B560" s="17"/>
+      <c r="D560" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="561" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B561" s="17"/>
+      <c r="D561" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="562" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B562" s="17"/>
+      <c r="D562" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="563" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B563" s="17"/>
+      <c r="D563" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="564" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B564" s="17"/>
+      <c r="D564" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="565" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B565" s="17"/>
+      <c r="D565" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="566" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B566" s="17"/>
+      <c r="D566" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="567" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B567" s="17"/>
+      <c r="D567" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="568" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B568" s="17"/>
+      <c r="D568" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="569" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B569" s="17"/>
+      <c r="D569" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="570" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B570" s="17"/>
+      <c r="D570" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="571" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B571" s="17"/>
+      <c r="D571" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="572" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B572" s="17"/>
+      <c r="D572" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="573" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B573" s="17"/>
+      <c r="D573" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="574" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B574" s="17"/>
+      <c r="D574" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="575" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B575" s="17"/>
+      <c r="D575" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="576" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B576" s="17"/>
+      <c r="D576" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="577" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B577" s="17"/>
+      <c r="D577" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="578" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B578" s="17"/>
+      <c r="D578" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="579" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B579" s="17"/>
+      <c r="D579" s="7" t="str">
+        <f t="shared" ref="D579:D642" si="9">IF(OR($B579&lt;&gt;"",$C579&lt;&gt;""),IFERROR(TRIM(MID($A579,IF(IF(NOT($I$1),LOWER($B579),$B579)="-",1,FIND(IF(NOT($I$1),LOWER($B579),$B579),IF(NOT($I$1),LOWER($A579),$A579))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B579),$B579)))),IF(IF(NOT($I$1),LOWER($C579),$C579)="",LEN(IF(NOT($I$1),LOWER($A579),$A579))+1+IF(IF(NOT($I$1),LOWER($B579),$B579)="",1,FIND(IF(NOT($I$1),LOWER($B579),$B579),IF(NOT($I$1),LOWER($A579),$A579))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B579),$B579)))),FIND(IF(NOT($I$1),LOWER($C579),$C579),IF(NOT($I$1),LOWER($A579),$A579),IF(IF(NOT($I$1),LOWER($B579),$B579)="-",1,FIND(IF(NOT($I$1),LOWER($B579),$B579),IF(NOT($I$1),LOWER($A579),$A579))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B579),$B579))))+1))-IF(IF(NOT($I$1),LOWER($B579),$B579)="-",1,FIND(IF(NOT($I$1),LOWER($B579),$B579),IF(NOT($I$1),LOWER($A579),$A579))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B579),$B579))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C579),$C579)),0))),"Не найдено"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="580" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B580" s="17"/>
+      <c r="D580" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="581" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B581" s="17"/>
+      <c r="D581" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="582" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B582" s="17"/>
+      <c r="D582" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="583" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B583" s="17"/>
+      <c r="D583" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="584" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B584" s="17"/>
+      <c r="D584" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="585" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B585" s="17"/>
+      <c r="D585" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="586" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B586" s="17"/>
+      <c r="D586" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="587" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B587" s="17"/>
+      <c r="D587" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="588" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B588" s="17"/>
+      <c r="D588" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="589" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B589" s="17"/>
+      <c r="D589" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="590" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B590" s="17"/>
+      <c r="D590" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="591" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B591" s="17"/>
+      <c r="D591" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="592" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B592" s="17"/>
+      <c r="D592" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="593" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B593" s="17"/>
+      <c r="D593" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="594" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B594" s="17"/>
+      <c r="D594" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="595" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B595" s="17"/>
+      <c r="D595" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="596" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B596" s="17"/>
+      <c r="D596" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="597" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B597" s="17"/>
+      <c r="D597" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="598" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B598" s="17"/>
+      <c r="D598" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="599" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B599" s="17"/>
+      <c r="D599" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="600" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B600" s="17"/>
+      <c r="D600" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="601" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B601" s="17"/>
+      <c r="D601" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="602" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B602" s="17"/>
+      <c r="D602" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="603" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B603" s="17"/>
+      <c r="D603" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="604" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B604" s="17"/>
+      <c r="D604" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="605" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B605" s="17"/>
+      <c r="D605" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="606" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B606" s="17"/>
+      <c r="D606" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="607" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B607" s="17"/>
+      <c r="D607" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="608" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B608" s="17"/>
+      <c r="D608" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="609" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B609" s="17"/>
+      <c r="D609" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="610" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B610" s="17"/>
+      <c r="D610" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="611" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B611" s="17"/>
+      <c r="D611" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="612" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B612" s="17"/>
+      <c r="D612" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="613" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B613" s="17"/>
+      <c r="D613" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="614" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B614" s="17"/>
+      <c r="D614" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="615" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B615" s="17"/>
+      <c r="D615" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="616" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B616" s="17"/>
+      <c r="D616" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="617" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B617" s="17"/>
+      <c r="D617" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="618" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B618" s="17"/>
+      <c r="D618" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="619" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B619" s="17"/>
+      <c r="D619" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="620" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B620" s="17"/>
+      <c r="D620" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="621" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B621" s="17"/>
+      <c r="D621" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="622" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B622" s="17"/>
+      <c r="D622" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="623" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B623" s="17"/>
+      <c r="D623" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="624" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B624" s="17"/>
+      <c r="D624" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="625" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B625" s="17"/>
+      <c r="D625" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="626" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B626" s="17"/>
+      <c r="D626" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="627" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B627" s="17"/>
+      <c r="D627" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="628" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B628" s="17"/>
+      <c r="D628" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="629" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B629" s="17"/>
+      <c r="D629" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="630" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B630" s="17"/>
+      <c r="D630" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="631" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B631" s="17"/>
+      <c r="D631" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="632" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B632" s="17"/>
+      <c r="D632" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="633" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B633" s="17"/>
+      <c r="D633" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="634" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B634" s="17"/>
+      <c r="D634" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="635" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B635" s="17"/>
+      <c r="D635" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="636" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B636" s="17"/>
+      <c r="D636" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="637" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B637" s="17"/>
+      <c r="D637" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="638" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B638" s="17"/>
+      <c r="D638" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="639" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B639" s="17"/>
+      <c r="D639" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="640" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B640" s="17"/>
+      <c r="D640" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="641" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B641" s="17"/>
+      <c r="D641" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="642" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B642" s="17"/>
+      <c r="D642" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="643" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B643" s="17"/>
+      <c r="D643" s="7" t="str">
+        <f t="shared" ref="D643:D657" si="10">IF(OR($B643&lt;&gt;"",$C643&lt;&gt;""),IFERROR(TRIM(MID($A643,IF(IF(NOT($I$1),LOWER($B643),$B643)="-",1,FIND(IF(NOT($I$1),LOWER($B643),$B643),IF(NOT($I$1),LOWER($A643),$A643))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B643),$B643)))),IF(IF(NOT($I$1),LOWER($C643),$C643)="",LEN(IF(NOT($I$1),LOWER($A643),$A643))+1+IF(IF(NOT($I$1),LOWER($B643),$B643)="",1,FIND(IF(NOT($I$1),LOWER($B643),$B643),IF(NOT($I$1),LOWER($A643),$A643))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B643),$B643)))),FIND(IF(NOT($I$1),LOWER($C643),$C643),IF(NOT($I$1),LOWER($A643),$A643),IF(IF(NOT($I$1),LOWER($B643),$B643)="-",1,FIND(IF(NOT($I$1),LOWER($B643),$B643),IF(NOT($I$1),LOWER($A643),$A643))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B643),$B643))))+1))-IF(IF(NOT($I$1),LOWER($B643),$B643)="-",1,FIND(IF(NOT($I$1),LOWER($B643),$B643),IF(NOT($I$1),LOWER($A643),$A643))+IF(NOT(NOT($G$1)),0,LEN(IF(NOT($I$1),LOWER($B643),$B643))))+IF(NOT(NOT($G$1)),LEN(IF(NOT($I$1),LOWER($C643),$C643)),0))),"Не найдено"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="644" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B644" s="17"/>
+      <c r="D644" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="645" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B645" s="17"/>
+      <c r="D645" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="646" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B646" s="17"/>
+      <c r="D646" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="647" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B647" s="17"/>
+      <c r="D647" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="648" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B648" s="17"/>
+      <c r="D648" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="649" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B649" s="17"/>
+      <c r="D649" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="650" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B650" s="17"/>
+      <c r="D650" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="651" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B651" s="17"/>
+      <c r="D651" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="652" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B652" s="17"/>
+      <c r="D652" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="653" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B653" s="17"/>
+      <c r="D653" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="654" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B654" s="17"/>
+      <c r="D654" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="655" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B655" s="17"/>
+      <c r="D655" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="656" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B656" s="17"/>
+      <c r="D656" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="657" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B657" s="17"/>
+      <c r="D657" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
       </c>
     </row>
   </sheetData>
